--- a/kwatchar3/kwatchar3.xlsx
+++ b/kwatchar3/kwatchar3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FY23"/>
+  <dimension ref="A1:FY46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4507,6 +4507,1622 @@
         <v>0.4888888888888889</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8218623481781376</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8087649402390438</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8402239448751077</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>16</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9514697178930756</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>33.60266193159239</v>
+      </c>
+      <c r="E27" t="n">
+        <v>29.88542937434376</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9523453360401752</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>26.95626086830293</v>
+      </c>
+      <c r="J27" t="n">
+        <v>32.38147618623957</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.6212589200127809</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>30.10294836058422</v>
+      </c>
+      <c r="O27" t="n">
+        <v>25.59663063764448</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.5979017235841987</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>18.38477631085023</v>
+      </c>
+      <c r="T27" t="n">
+        <v>28.75567576825293</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.537209551343827</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9261904761904762</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9013806706114399</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7032163742690059</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9400606980273141</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>17.11187676821605</v>
+      </c>
+      <c r="J31" t="n">
+        <v>50.92210938766967</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9369061193462562</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15.283433296656</v>
+      </c>
+      <c r="O31" t="n">
+        <v>28.05599559610902</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.9095806079261254</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>16.33401359127634</v>
+      </c>
+      <c r="T31" t="n">
+        <v>25.77595779015787</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.4886363636363636</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>15.55634918610405</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>27.74086436208424</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.4809322033898305</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>28.79670119996386</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.1310717039321511</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>13</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9170836311651179</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5607763023493361</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>40.60685492212696</v>
+      </c>
+      <c r="E35" t="n">
+        <v>58.00981717682696</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9170626838651279</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>48.16897341650536</v>
+      </c>
+      <c r="J35" t="n">
+        <v>60.78394113579672</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4592881797091609</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>44.36845726414206</v>
+      </c>
+      <c r="O35" t="n">
+        <v>57.96343675111061</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.3805885681946802</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>54.5221667458903</v>
+      </c>
+      <c r="T35" t="n">
+        <v>58.90293333574785</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.3475012734167185</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" t="n">
+        <v>56</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.01031395217046356</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>17</v>
+      </c>
+      <c r="E36" t="n">
+        <v>25</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9203821656050956</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>31.82828930369963</v>
+      </c>
+      <c r="E37" t="n">
+        <v>44.31433176749933</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9109950681752248</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>35.19499254155341</v>
+      </c>
+      <c r="J37" t="n">
+        <v>37.07087805811996</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8621850690816208</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>40.58187882403782</v>
+      </c>
+      <c r="O37" t="n">
+        <v>9.809292646374773</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.8345729227193492</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7528089887640449</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>39</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6947368421052632</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>15.2825245151302</v>
+      </c>
+      <c r="O38" t="n">
+        <v>20.84866102814918</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.9428090415820634</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4.496912521077348</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.5922330097087378</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2</v>
+      </c>
+      <c r="X38" t="n">
+        <v>13.78404875209022</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>21.2226294318117</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.5511811023622047</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>15.04160895649132</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>23.1880896151451</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.5423728813559322</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>15.89549202342182</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>24.17988144442951</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.5158730158730159</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>10.41921302210488</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>28.93855559629748</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.5118110236220472</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>11.5433963806152</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>32.14323412477344</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.4962962962962963</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0.4776119402985075</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>19.93879523831757</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>32.2628096868343</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0.4146341463414634</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>10.40299102288482</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>22.95406040091576</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>0.4037267080745341</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>25</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>0.3832335329341318</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>25</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>0.3368983957219251</v>
+      </c>
+      <c r="BT38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>9.705024471890836</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>20.15409387692734</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>0.2644230769230769</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ38" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>29.4542960458327</v>
+      </c>
+      <c r="CB38" t="n">
+        <v>39.4451095405586</v>
+      </c>
+      <c r="CC38" t="n">
+        <v>0.1581769436997319</v>
+      </c>
+      <c r="CD38" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE38" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>27.31823043840348</v>
+      </c>
+      <c r="CG38" t="n">
+        <v>36.61325732907273</v>
+      </c>
+      <c r="CH38" t="n">
+        <v>0.1478439425051335</v>
+      </c>
+      <c r="CI38" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ38" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK38" t="n">
+        <v>29.40663190506523</v>
+      </c>
+      <c r="CL38" t="n">
+        <v>41.23332996496887</v>
+      </c>
+      <c r="CM38" t="n">
+        <v>0.1010719754977029</v>
+      </c>
+      <c r="CN38" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO38" t="n">
+        <v>6</v>
+      </c>
+      <c r="CP38" t="n">
+        <v>27.7786666524449</v>
+      </c>
+      <c r="CQ38" t="n">
+        <v>39.34306219919691</v>
+      </c>
+      <c r="CR38" t="n">
+        <v>0.09705372616984402</v>
+      </c>
+      <c r="CS38" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT38" t="n">
+        <v>7</v>
+      </c>
+      <c r="CU38" t="n">
+        <v>29.32643858363985</v>
+      </c>
+      <c r="CV38" t="n">
+        <v>41.16661268552466</v>
+      </c>
+      <c r="CW38" t="n">
+        <v>0.0226928895612708</v>
+      </c>
+      <c r="CX38" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY38" t="n">
+        <v>8</v>
+      </c>
+      <c r="CZ38" t="n">
+        <v>29.38262825165929</v>
+      </c>
+      <c r="DA38" t="n">
+        <v>41.40946512155032</v>
+      </c>
+      <c r="DB38" t="n">
+        <v>0.009234828496042216</v>
+      </c>
+      <c r="DC38" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD38" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE38" t="n">
+        <v>18.70828693386971</v>
+      </c>
+      <c r="DF38" t="n">
+        <v>29.87306479087809</v>
+      </c>
+      <c r="DG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH38" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI38" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ38" t="n">
+        <v>12.02774570177914</v>
+      </c>
+      <c r="DK38" t="n">
+        <v>13.88044187577134</v>
+      </c>
+      <c r="DL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM38" t="n">
+        <v>2</v>
+      </c>
+      <c r="DN38" t="n">
+        <v>2</v>
+      </c>
+      <c r="DO38" t="n">
+        <v>14.1155942134931</v>
+      </c>
+      <c r="DP38" t="n">
+        <v>18.67317594840257</v>
+      </c>
+      <c r="DQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR38" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS38" t="n">
+        <v>2</v>
+      </c>
+      <c r="DT38" t="n">
+        <v>18.63296809421408</v>
+      </c>
+      <c r="DU38" t="n">
+        <v>29.50423698386386</v>
+      </c>
+      <c r="DV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW38" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX38" t="n">
+        <v>2</v>
+      </c>
+      <c r="DY38" t="n">
+        <v>17.8574603146385</v>
+      </c>
+      <c r="DZ38" t="n">
+        <v>28.47611084556472</v>
+      </c>
+      <c r="EA38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8363246718457005</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>19</v>
+      </c>
+      <c r="E40" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8894752867147062</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9284712482468443</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6.342099196813483</v>
+      </c>
+      <c r="E42" t="n">
+        <v>36.3532055746884</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9113272311212814</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>76.84761255599003</v>
+      </c>
+      <c r="E43" t="n">
+        <v>15.69146972791976</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8917705735660848</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12</v>
+      </c>
+      <c r="E44" t="n">
+        <v>25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8577489393561267</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>34</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9630474452554745</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.153831921112134</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8.997704023024452</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1202346041055719</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.438772555786852</v>
+      </c>
+      <c r="J46" t="n">
+        <v>9.93435242100316</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.1172839506172839</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5.329165037789691</v>
+      </c>
+      <c r="O46" t="n">
+        <v>9.43610088966836</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.1162790697674419</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>6.517071598672384</v>
+      </c>
+      <c r="T46" t="n">
+        <v>12.14381415463125</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.1051212938005391</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4</v>
+      </c>
+      <c r="W46" t="n">
+        <v>4</v>
+      </c>
+      <c r="X46" t="n">
+        <v>5.743202503830071</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>10.53565375285274</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.1043956043956044</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>4.358898943540674</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>10.16120071645079</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.1043256997455471</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>6.13454587245254</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>11.24676824329404</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.1013333333333333</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>4.99165971062398</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>8.664663229975467</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.1013071895424837</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>5.079613089183316</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>10.47748909700114</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.08864265927977839</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>5.343739847293799</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>9.192388155425117</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0.08670520231213873</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>5.351546809515719</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>8.975311304782219</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0.08580858085808581</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>2.641891715558133</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>10.4315064363021</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>0.08133086876155268</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>5.212825886120528</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>9.554541129659086</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>0.07909604519774012</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ46" t="n">
+        <v>1.833030277982336</v>
+      </c>
+      <c r="BR46" t="n">
+        <v>2.785677655436824</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>0.07256637168141593</v>
+      </c>
+      <c r="BT46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV46" t="n">
+        <v>2.29128784747792</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>7.804912982645397</v>
+      </c>
+      <c r="BX46" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="BY46" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA46" t="n">
+        <v>7.917543811056558</v>
+      </c>
+      <c r="CB46" t="n">
+        <v>9.836157786453001</v>
+      </c>
+      <c r="CC46" t="n">
+        <v>0.06962025316455696</v>
+      </c>
+      <c r="CD46" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE46" t="n">
+        <v>7</v>
+      </c>
+      <c r="CF46" t="n">
+        <v>5.3113086899558</v>
+      </c>
+      <c r="CG46" t="n">
+        <v>9.9443451267542</v>
+      </c>
+      <c r="CH46" t="n">
+        <v>0.06837606837606838</v>
+      </c>
+      <c r="CI46" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ46" t="n">
+        <v>13</v>
+      </c>
+      <c r="CK46" t="n">
+        <v>6.184342628768235</v>
+      </c>
+      <c r="CL46" t="n">
+        <v>9.534272061882858</v>
+      </c>
+      <c r="CM46" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="CN46" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO46" t="n">
+        <v>12</v>
+      </c>
+      <c r="CP46" t="n">
+        <v>5.458530530788992</v>
+      </c>
+      <c r="CQ46" t="n">
+        <v>9.295160030897801</v>
+      </c>
+      <c r="CR46" t="n">
+        <v>0.06597222222222222</v>
+      </c>
+      <c r="CS46" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT46" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU46" t="n">
+        <v>7.138627319029899</v>
+      </c>
+      <c r="CV46" t="n">
+        <v>13.16966210652346</v>
+      </c>
+      <c r="CW46" t="n">
+        <v>0.06258890469416785</v>
+      </c>
+      <c r="CX46" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY46" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB46" t="n">
+        <v>0.06205923836389281</v>
+      </c>
+      <c r="DC46" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD46" t="n">
+        <v>15</v>
+      </c>
+      <c r="DE46" t="n">
+        <v>6.662961933584422</v>
+      </c>
+      <c r="DF46" t="n">
+        <v>10.06399277708822</v>
+      </c>
+      <c r="DG46" t="n">
+        <v>0.05862068965517241</v>
+      </c>
+      <c r="DH46" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI46" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ46" t="n">
+        <v>4.109609335312651</v>
+      </c>
+      <c r="DK46" t="n">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="DL46" t="n">
+        <v>0.05851063829787234</v>
+      </c>
+      <c r="DM46" t="n">
+        <v>3</v>
+      </c>
+      <c r="DN46" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO46" t="n">
+        <v>1.6393596310755</v>
+      </c>
+      <c r="DP46" t="n">
+        <v>2.947456530637899</v>
+      </c>
+      <c r="DQ46" t="n">
+        <v>0.0576923076923077</v>
+      </c>
+      <c r="DR46" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS46" t="n">
+        <v>14</v>
+      </c>
+      <c r="DT46" t="n">
+        <v>6.258005253895643</v>
+      </c>
+      <c r="DU46" t="n">
+        <v>9.969850744892449</v>
+      </c>
+      <c r="DV46" t="n">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="DW46" t="n">
+        <v>7</v>
+      </c>
+      <c r="DX46" t="n">
+        <v>6</v>
+      </c>
+      <c r="DY46" t="n">
+        <v>4.7976818860039</v>
+      </c>
+      <c r="DZ46" t="n">
+        <v>8.329742816234807</v>
+      </c>
+      <c r="EA46" t="n">
+        <v>0.05072463768115942</v>
+      </c>
+      <c r="EB46" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC46" t="n">
+        <v>11</v>
+      </c>
+      <c r="ED46" t="n">
+        <v>5.166611805721464</v>
+      </c>
+      <c r="EE46" t="n">
+        <v>8.923998829114716</v>
+      </c>
+      <c r="EF46" t="n">
+        <v>0.04230769230769231</v>
+      </c>
+      <c r="EG46" t="n">
+        <v>7</v>
+      </c>
+      <c r="EH46" t="n">
+        <v>7</v>
+      </c>
+      <c r="EI46" t="n">
+        <v>4.712120714991612</v>
+      </c>
+      <c r="EJ46" t="n">
+        <v>8.043250434433856</v>
+      </c>
+      <c r="EK46" t="n">
+        <v>0.02592592592592593</v>
+      </c>
+      <c r="EL46" t="n">
+        <v>7</v>
+      </c>
+      <c r="EM46" t="n">
+        <v>8</v>
+      </c>
+      <c r="EN46" t="n">
+        <v>4.572380853195265</v>
+      </c>
+      <c r="EO46" t="n">
+        <v>7.906677908929613</v>
+      </c>
+      <c r="EP46" t="n">
+        <v>0.02066115702479339</v>
+      </c>
+      <c r="EQ46" t="n">
+        <v>7</v>
+      </c>
+      <c r="ER46" t="n">
+        <v>11</v>
+      </c>
+      <c r="ES46" t="n">
+        <v>4.750893353288514</v>
+      </c>
+      <c r="ET46" t="n">
+        <v>7.312259281676843</v>
+      </c>
+      <c r="EU46" t="n">
+        <v>0.01935483870967742</v>
+      </c>
+      <c r="EV46" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW46" t="n">
+        <v>9</v>
+      </c>
+      <c r="EX46" t="n">
+        <v>4.565067770581287</v>
+      </c>
+      <c r="EY46" t="n">
+        <v>7.701460900374681</v>
+      </c>
+      <c r="EZ46" t="n">
+        <v>0.01834862385321101</v>
+      </c>
+      <c r="FA46" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB46" t="n">
+        <v>10</v>
+      </c>
+      <c r="FC46" t="n">
+        <v>4.601789933084222</v>
+      </c>
+      <c r="FD46" t="n">
+        <v>7.471746089059582</v>
+      </c>
+      <c r="FE46" t="n">
+        <v>0.01621621621621622</v>
+      </c>
+      <c r="FF46" t="n">
+        <v>7</v>
+      </c>
+      <c r="FG46" t="n">
+        <v>12</v>
+      </c>
+      <c r="FH46" t="n">
+        <v>4.737426864490774</v>
+      </c>
+      <c r="FI46" t="n">
+        <v>7.18955844906492</v>
+      </c>
+      <c r="FJ46" t="n">
+        <v>0.01515151515151515</v>
+      </c>
+      <c r="FK46" t="n">
+        <v>7</v>
+      </c>
+      <c r="FL46" t="n">
+        <v>13</v>
+      </c>
+      <c r="FM46" t="n">
+        <v>4.684815898197068</v>
+      </c>
+      <c r="FN46" t="n">
+        <v>7.204859471218019</v>
+      </c>
+      <c r="FO46" t="n">
+        <v>0.008771929824561403</v>
+      </c>
+      <c r="FP46" t="n">
+        <v>7</v>
+      </c>
+      <c r="FQ46" t="n">
+        <v>14</v>
+      </c>
+      <c r="FR46" t="n">
+        <v>4.716930475062778</v>
+      </c>
+      <c r="FS46" t="n">
+        <v>7.121237121497189</v>
+      </c>
+      <c r="FT46" t="n">
+        <v>0.00819672131147541</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/kwatchar3/kwatchar3.xlsx
+++ b/kwatchar3/kwatchar3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FY46"/>
+  <dimension ref="A1:JA67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6123,6 +6123,3408 @@
         <v>0.00819672131147541</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>12</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7704102776626606</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>11.93144479935268</v>
+      </c>
+      <c r="E48" t="n">
+        <v>31.70961999141585</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7291231732776617</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12.58603048086672</v>
+      </c>
+      <c r="J48" t="n">
+        <v>32.48233428829164</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.7199383350462487</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="n">
+        <v>13.14555269114066</v>
+      </c>
+      <c r="O48" t="n">
+        <v>34.5707808544859</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.710379746835443</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>14.14213562373095</v>
+      </c>
+      <c r="T48" t="n">
+        <v>35.83604640891936</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.7096611026808295</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2</v>
+      </c>
+      <c r="W48" t="n">
+        <v>3</v>
+      </c>
+      <c r="X48" t="n">
+        <v>11.32077735846793</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>37.65846518380695</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.7073047858942065</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.7032581453634085</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>12.43734296383275</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>42.09141836526776</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.7007481296758105</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>19</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9334239130434783</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20</v>
+      </c>
+      <c r="D50" t="n">
+        <v>14.23417707428734</v>
+      </c>
+      <c r="E50" t="n">
+        <v>13.08513853499877</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.869757174392936</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14.2918129416727</v>
+      </c>
+      <c r="J50" t="n">
+        <v>13.3343996121967</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.8653421633554084</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6</v>
+      </c>
+      <c r="M50" t="n">
+        <v>21</v>
+      </c>
+      <c r="N50" t="n">
+        <v>14.23417707428734</v>
+      </c>
+      <c r="O50" t="n">
+        <v>13.08660610163152</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8653421633554084</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>6</v>
+      </c>
+      <c r="R50" t="n">
+        <v>20</v>
+      </c>
+      <c r="S50" t="n">
+        <v>14.2918129416727</v>
+      </c>
+      <c r="T50" t="n">
+        <v>13.3343996121967</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.8653421633554084</v>
+      </c>
+      <c r="V50" t="n">
+        <v>6</v>
+      </c>
+      <c r="W50" t="n">
+        <v>18</v>
+      </c>
+      <c r="X50" t="n">
+        <v>13.80494074195499</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>13.62060326613081</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.8625277161862528</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>14.19740562675492</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>12.86170553961469</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0.8624454148471615</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>14.14852420634739</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>12.66996223061021</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.8617710583153347</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>13.99919997714155</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>13.54258468683139</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.8587196467991169</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>13.80925965335988</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>13.55420400188678</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0.8584070796460177</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>13.91451171847709</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>13.54789483814569</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0.8561946902654868</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>14.06259814780564</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>12.53461872841239</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0.854389721627409</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>20</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>13.89068366250786</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>12.40178900189205</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0.854389721627409</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>20</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>12.95564608315999</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>11.60765498802354</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>0.8528784648187633</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>15</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>13.91910545252961</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>13.82166953565431</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>0.8517699115044248</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>17</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>20</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>12.80921417807321</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>11.4998015036701</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>0.851380042462845</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>15</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>20</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>13.13303981163072</v>
+      </c>
+      <c r="CB50" t="n">
+        <v>11.75602320653771</v>
+      </c>
+      <c r="CC50" t="n">
+        <v>0.8507462686567164</v>
+      </c>
+      <c r="CD50" t="n">
+        <v>14</v>
+      </c>
+      <c r="CE50" t="n">
+        <v>20</v>
+      </c>
+      <c r="CF50" t="n">
+        <v>13.32206848242866</v>
+      </c>
+      <c r="CG50" t="n">
+        <v>11.91013060686844</v>
+      </c>
+      <c r="CH50" t="n">
+        <v>0.8486140724946695</v>
+      </c>
+      <c r="CI50" t="n">
+        <v>12</v>
+      </c>
+      <c r="CJ50" t="n">
+        <v>20</v>
+      </c>
+      <c r="CK50" t="n">
+        <v>13.68104156990615</v>
+      </c>
+      <c r="CL50" t="n">
+        <v>12.24070916807927</v>
+      </c>
+      <c r="CM50" t="n">
+        <v>0.8479657387580299</v>
+      </c>
+      <c r="CN50" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO50" t="n">
+        <v>14</v>
+      </c>
+      <c r="CP50" t="n">
+        <v>14.16862731530475</v>
+      </c>
+      <c r="CQ50" t="n">
+        <v>14.1120515872073</v>
+      </c>
+      <c r="CR50" t="n">
+        <v>0.8454746136865342</v>
+      </c>
+      <c r="CS50" t="n">
+        <v>13</v>
+      </c>
+      <c r="CT50" t="n">
+        <v>20</v>
+      </c>
+      <c r="CU50" t="n">
+        <v>13.47221062546243</v>
+      </c>
+      <c r="CV50" t="n">
+        <v>12.05915934676198</v>
+      </c>
+      <c r="CW50" t="n">
+        <v>0.8443496801705757</v>
+      </c>
+      <c r="CX50" t="n">
+        <v>6</v>
+      </c>
+      <c r="CY50" t="n">
+        <v>7</v>
+      </c>
+      <c r="CZ50" t="n">
+        <v>16.68007350316556</v>
+      </c>
+      <c r="DA50" t="n">
+        <v>14.78284628813742</v>
+      </c>
+      <c r="DB50" t="n">
+        <v>0.8429203539823009</v>
+      </c>
+      <c r="DC50" t="n">
+        <v>5</v>
+      </c>
+      <c r="DD50" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE50" t="n">
+        <v>11.51327735944703</v>
+      </c>
+      <c r="DF50" t="n">
+        <v>5.617433182117573</v>
+      </c>
+      <c r="DG50" t="n">
+        <v>0.8406113537117904</v>
+      </c>
+      <c r="DH50" t="n">
+        <v>6</v>
+      </c>
+      <c r="DI50" t="n">
+        <v>10</v>
+      </c>
+      <c r="DJ50" t="n">
+        <v>15.35822255340767</v>
+      </c>
+      <c r="DK50" t="n">
+        <v>14.22365986657443</v>
+      </c>
+      <c r="DL50" t="n">
+        <v>0.838495575221239</v>
+      </c>
+      <c r="DM50" t="n">
+        <v>6</v>
+      </c>
+      <c r="DN50" t="n">
+        <v>8</v>
+      </c>
+      <c r="DO50" t="n">
+        <v>16.37148466706919</v>
+      </c>
+      <c r="DP50" t="n">
+        <v>14.47957745465337</v>
+      </c>
+      <c r="DQ50" t="n">
+        <v>0.838495575221239</v>
+      </c>
+      <c r="DR50" t="n">
+        <v>6</v>
+      </c>
+      <c r="DS50" t="n">
+        <v>6</v>
+      </c>
+      <c r="DT50" t="n">
+        <v>16.38766473770914</v>
+      </c>
+      <c r="DU50" t="n">
+        <v>15.3839743456191</v>
+      </c>
+      <c r="DV50" t="n">
+        <v>0.838495575221239</v>
+      </c>
+      <c r="DW50" t="n">
+        <v>6</v>
+      </c>
+      <c r="DX50" t="n">
+        <v>9</v>
+      </c>
+      <c r="DY50" t="n">
+        <v>15.81644713581404</v>
+      </c>
+      <c r="DZ50" t="n">
+        <v>14.22517330493923</v>
+      </c>
+      <c r="EA50" t="n">
+        <v>0.838495575221239</v>
+      </c>
+      <c r="EB50" t="n">
+        <v>6</v>
+      </c>
+      <c r="EC50" t="n">
+        <v>13</v>
+      </c>
+      <c r="ED50" t="n">
+        <v>14.53241672035563</v>
+      </c>
+      <c r="EE50" t="n">
+        <v>14.39759906115467</v>
+      </c>
+      <c r="EF50" t="n">
+        <v>0.8351648351648352</v>
+      </c>
+      <c r="EG50" t="n">
+        <v>6</v>
+      </c>
+      <c r="EH50" t="n">
+        <v>11</v>
+      </c>
+      <c r="EI50" t="n">
+        <v>15.33952535322667</v>
+      </c>
+      <c r="EJ50" t="n">
+        <v>14.48707812244938</v>
+      </c>
+      <c r="EK50" t="n">
+        <v>0.8348017621145375</v>
+      </c>
+      <c r="EL50" t="n">
+        <v>6</v>
+      </c>
+      <c r="EM50" t="n">
+        <v>5</v>
+      </c>
+      <c r="EN50" t="n">
+        <v>16.18692462840362</v>
+      </c>
+      <c r="EO50" t="n">
+        <v>15.257568234478</v>
+      </c>
+      <c r="EP50" t="n">
+        <v>0.8348017621145375</v>
+      </c>
+      <c r="EQ50" t="n">
+        <v>6</v>
+      </c>
+      <c r="ER50" t="n">
+        <v>4</v>
+      </c>
+      <c r="ES50" t="n">
+        <v>16.52543494132605</v>
+      </c>
+      <c r="ET50" t="n">
+        <v>15.75468184382027</v>
+      </c>
+      <c r="EU50" t="n">
+        <v>0.8336980306345733</v>
+      </c>
+      <c r="EV50" t="n">
+        <v>6</v>
+      </c>
+      <c r="EW50" t="n">
+        <v>12</v>
+      </c>
+      <c r="EX50" t="n">
+        <v>14.91912353034119</v>
+      </c>
+      <c r="EY50" t="n">
+        <v>14.51148970069349</v>
+      </c>
+      <c r="EZ50" t="n">
+        <v>0.832967032967033</v>
+      </c>
+      <c r="FA50" t="n">
+        <v>6</v>
+      </c>
+      <c r="FB50" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC50" t="n">
+        <v>16.72065330403032</v>
+      </c>
+      <c r="FD50" t="n">
+        <v>16.38502779376554</v>
+      </c>
+      <c r="FE50" t="n">
+        <v>0.8322440087145969</v>
+      </c>
+      <c r="FF50" t="n">
+        <v>5</v>
+      </c>
+      <c r="FG50" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH50" t="n">
+        <v>11.18307759473196</v>
+      </c>
+      <c r="FI50" t="n">
+        <v>6.020373573058708</v>
+      </c>
+      <c r="FJ50" t="n">
+        <v>0.8318777292576419</v>
+      </c>
+      <c r="FK50" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL50" t="n">
+        <v>3</v>
+      </c>
+      <c r="FM50" t="n">
+        <v>19.00365461928018</v>
+      </c>
+      <c r="FN50" t="n">
+        <v>19.44222209522358</v>
+      </c>
+      <c r="FO50" t="n">
+        <v>0.831140350877193</v>
+      </c>
+      <c r="FP50" t="n">
+        <v>5</v>
+      </c>
+      <c r="FQ50" t="n">
+        <v>5</v>
+      </c>
+      <c r="FR50" t="n">
+        <v>9.644169222903546</v>
+      </c>
+      <c r="FS50" t="n">
+        <v>7.071067811865476</v>
+      </c>
+      <c r="FT50" t="n">
+        <v>0.8311111111111111</v>
+      </c>
+      <c r="FU50" t="n">
+        <v>2</v>
+      </c>
+      <c r="FV50" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW50" t="n">
+        <v>19.9939990997299</v>
+      </c>
+      <c r="FX50" t="n">
+        <v>20.45482828087295</v>
+      </c>
+      <c r="FY50" t="n">
+        <v>0.8300220750551877</v>
+      </c>
+      <c r="FZ50" t="n">
+        <v>4</v>
+      </c>
+      <c r="GA50" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB50" t="n">
+        <v>11.87602627144282</v>
+      </c>
+      <c r="GC50" t="n">
+        <v>6.099180272790763</v>
+      </c>
+      <c r="GD50" t="n">
+        <v>0.8289473684210527</v>
+      </c>
+      <c r="GE50" t="n">
+        <v>4</v>
+      </c>
+      <c r="GF50" t="n">
+        <v>3</v>
+      </c>
+      <c r="GG50" t="n">
+        <v>17.8634274655321</v>
+      </c>
+      <c r="GH50" t="n">
+        <v>18.16590212458495</v>
+      </c>
+      <c r="GI50" t="n">
+        <v>0.8289473684210527</v>
+      </c>
+      <c r="GJ50" t="n">
+        <v>5</v>
+      </c>
+      <c r="GK50" t="n">
+        <v>7</v>
+      </c>
+      <c r="GL50" t="n">
+        <v>11.42609100066841</v>
+      </c>
+      <c r="GM50" t="n">
+        <v>7.455423082115014</v>
+      </c>
+      <c r="GN50" t="n">
+        <v>0.8285077951002228</v>
+      </c>
+      <c r="GO50" t="n">
+        <v>5</v>
+      </c>
+      <c r="GP50" t="n">
+        <v>8</v>
+      </c>
+      <c r="GQ50" t="n">
+        <v>12.66033268396368</v>
+      </c>
+      <c r="GR50" t="n">
+        <v>7.223400500657527</v>
+      </c>
+      <c r="GS50" t="n">
+        <v>0.8277404921700223</v>
+      </c>
+      <c r="GT50" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU50" t="n">
+        <v>9</v>
+      </c>
+      <c r="GV50" t="n">
+        <v>13.22721375322367</v>
+      </c>
+      <c r="GW50" t="n">
+        <v>7.749917708582196</v>
+      </c>
+      <c r="GX50" t="n">
+        <v>0.8277404921700223</v>
+      </c>
+      <c r="GY50" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ50" t="n">
+        <v>3</v>
+      </c>
+      <c r="HA50" t="n">
+        <v>19.00365461928018</v>
+      </c>
+      <c r="HB50" t="n">
+        <v>19.38785415895449</v>
+      </c>
+      <c r="HC50" t="n">
+        <v>0.8267543859649122</v>
+      </c>
+      <c r="HD50" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE50" t="n">
+        <v>6</v>
+      </c>
+      <c r="HF50" t="n">
+        <v>10.00330523889376</v>
+      </c>
+      <c r="HG50" t="n">
+        <v>7.7085334275273</v>
+      </c>
+      <c r="HH50" t="n">
+        <v>0.8266666666666667</v>
+      </c>
+      <c r="HI50" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ50" t="n">
+        <v>4</v>
+      </c>
+      <c r="HK50" t="n">
+        <v>10.0823767529117</v>
+      </c>
+      <c r="HL50" t="n">
+        <v>6.146362971528592</v>
+      </c>
+      <c r="HM50" t="n">
+        <v>0.82560706401766</v>
+      </c>
+      <c r="HN50" t="n">
+        <v>5</v>
+      </c>
+      <c r="HO50" t="n">
+        <v>10</v>
+      </c>
+      <c r="HP50" t="n">
+        <v>13.09283094759198</v>
+      </c>
+      <c r="HQ50" t="n">
+        <v>8.767110254937041</v>
+      </c>
+      <c r="HR50" t="n">
+        <v>0.8236607142857143</v>
+      </c>
+      <c r="HS50" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT50" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU50" t="n">
+        <v>10.46347815021372</v>
+      </c>
+      <c r="HV50" t="n">
+        <v>5.910795208768445</v>
+      </c>
+      <c r="HW50" t="n">
+        <v>0.8227571115973742</v>
+      </c>
+      <c r="HX50" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY50" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ50" t="n">
+        <v>20.51925924588897</v>
+      </c>
+      <c r="IA50" t="n">
+        <v>21.2075458268985</v>
+      </c>
+      <c r="IB50" t="n">
+        <v>0.821505376344086</v>
+      </c>
+      <c r="IC50" t="n">
+        <v>5</v>
+      </c>
+      <c r="ID50" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE50" t="n">
+        <v>17.37769763231021</v>
+      </c>
+      <c r="IF50" t="n">
+        <v>17.00551381170237</v>
+      </c>
+      <c r="IG50" t="n">
+        <v>0.8209606986899564</v>
+      </c>
+      <c r="IH50" t="n">
+        <v>5</v>
+      </c>
+      <c r="II50" t="n">
+        <v>11</v>
+      </c>
+      <c r="IJ50" t="n">
+        <v>12.6935022747861</v>
+      </c>
+      <c r="IK50" t="n">
+        <v>8.831539715700767</v>
+      </c>
+      <c r="IL50" t="n">
+        <v>0.8133333333333334</v>
+      </c>
+      <c r="IM50" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN50" t="n">
+        <v>2</v>
+      </c>
+      <c r="IO50" t="n">
+        <v>15.08494466531301</v>
+      </c>
+      <c r="IP50" t="n">
+        <v>23.25224003546038</v>
+      </c>
+      <c r="IQ50" t="n">
+        <v>0.8105726872246696</v>
+      </c>
+      <c r="IR50" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS50" t="n">
+        <v>3</v>
+      </c>
+      <c r="IT50" t="n">
+        <v>20.89706917249402</v>
+      </c>
+      <c r="IU50" t="n">
+        <v>22.86235989568881</v>
+      </c>
+      <c r="IV50" t="n">
+        <v>0.7960088691796009</v>
+      </c>
+      <c r="IW50" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX50" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ50" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="JA50" t="n">
+        <v>0.7907488986784141</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9209445585215605</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>13.99428454762872</v>
+      </c>
+      <c r="E52" t="n">
+        <v>50.6059285064507</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.912844947389319</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>23.33571416424952</v>
+      </c>
+      <c r="J52" t="n">
+        <v>46.80604187020684</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.912214498510427</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="n">
+        <v>22.89639486817049</v>
+      </c>
+      <c r="O52" t="n">
+        <v>46.20672271964109</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.9119222376512597</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>22.02803611309914</v>
+      </c>
+      <c r="T52" t="n">
+        <v>45.96449037028476</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.9092537313432836</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X52" t="n">
+        <v>14.48059045757458</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>45.48282642932385</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.9075714861055175</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>22.39047416499555</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>44.81815108487483</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.9065550906555091</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>24.38643526331946</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>54.0851837437178</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0.903899721448468</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>21.96724834839357</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>42.83503239172348</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.9029493822239936</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>21.81363589005285</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>40.87331769227394</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0.9009368148295794</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>23.79717536926506</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>39.69563018211898</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0.8960494812450119</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>15.10702559149955</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>41.51572660517404</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0.7797060024499796</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>16.73983937265296</v>
+      </c>
+      <c r="E53" t="n">
+        <v>45.06538459714827</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8609080841638981</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>41</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.8192556273679519</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>19.84155991851447</v>
+      </c>
+      <c r="E54" t="n">
+        <v>53.93224916504039</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.6327769347496206</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>15</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.6314471707561342</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>21.64871050817269</v>
+      </c>
+      <c r="O54" t="n">
+        <v>56.03768573221259</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.6311557788944724</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8971492453884852</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>36.85842115279144</v>
+      </c>
+      <c r="E56" t="n">
+        <v>11.97218999737865</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2481283422459893</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" t="n">
+        <v>46.68575799962982</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12.07518115806136</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2122241086587436</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>9</v>
+      </c>
+      <c r="N56" t="n">
+        <v>101.1753998680585</v>
+      </c>
+      <c r="O56" t="n">
+        <v>16.18824176980419</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.1968365553602812</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7</v>
+      </c>
+      <c r="S56" t="n">
+        <v>45.44218013626976</v>
+      </c>
+      <c r="T56" t="n">
+        <v>11.81958033683273</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.1887254901960784</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4</v>
+      </c>
+      <c r="W56" t="n">
+        <v>8</v>
+      </c>
+      <c r="X56" t="n">
+        <v>46.17020142906028</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>12.19602621986176</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.1872541306058222</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>31.94110791754099</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>12.36868525753647</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>28.20768458040743</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>12.88251464868057</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0.1284175642087821</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>145.0217100950474</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>14.91341584946819</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.112388917929953</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>27.96426290821913</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>13.62289739127963</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.1065877128053294</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>122.5017284342868</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>15.64611838150802</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0.09258226436140547</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>147.9599128225924</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>15.27616153066964</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0.07573354480570975</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>151.619401484686</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>14.89153401994328</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0.07374890254609306</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>144.9559739196698</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>15.23244378784967</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>0.06478209658421673</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>9</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>135.7314341713894</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>15.29473402478411</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>0.05988243938280676</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>96.0937042682818</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>21.82251640444388</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>0.05625717566016074</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="CB56" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="CC56" t="n">
+        <v>0.04477611940298507</v>
+      </c>
+      <c r="CD56" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE56" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>6</v>
+      </c>
+      <c r="CG56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CH56" t="n">
+        <v>0.04423592493297587</v>
+      </c>
+      <c r="CI56" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ56" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK56" t="n">
+        <v>6</v>
+      </c>
+      <c r="CL56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CM56" t="n">
+        <v>0.04423592493297587</v>
+      </c>
+      <c r="CN56" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO56" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP56" t="n">
+        <v>21.77154105707724</v>
+      </c>
+      <c r="CQ56" t="n">
+        <v>13.07244770075172</v>
+      </c>
+      <c r="CR56" t="n">
+        <v>0.04370860927152318</v>
+      </c>
+      <c r="CS56" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT56" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU56" t="n">
+        <v>80.87632281352025</v>
+      </c>
+      <c r="CV56" t="n">
+        <v>22.6697676950369</v>
+      </c>
+      <c r="CW56" t="n">
+        <v>0.03755703755703756</v>
+      </c>
+      <c r="CX56" t="n">
+        <v>4</v>
+      </c>
+      <c r="CY56" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ56" t="n">
+        <v>84.87768977901214</v>
+      </c>
+      <c r="DA56" t="n">
+        <v>24.06241883103193</v>
+      </c>
+      <c r="DB56" t="n">
+        <v>0.03473581213307241</v>
+      </c>
+      <c r="DC56" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD56" t="n">
+        <v>3</v>
+      </c>
+      <c r="DE56" t="n">
+        <v>29.73886346180701</v>
+      </c>
+      <c r="DF56" t="n">
+        <v>14.75940378199607</v>
+      </c>
+      <c r="DG56" t="n">
+        <v>0.021813224267212</v>
+      </c>
+      <c r="DH56" t="n">
+        <v>2</v>
+      </c>
+      <c r="DI56" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ56" t="n">
+        <v>28.70975443991118</v>
+      </c>
+      <c r="DK56" t="n">
+        <v>11.36606792166931</v>
+      </c>
+      <c r="DL56" t="n">
+        <v>0.01352941176470588</v>
+      </c>
+      <c r="DM56" t="n">
+        <v>2</v>
+      </c>
+      <c r="DN56" t="n">
+        <v>2</v>
+      </c>
+      <c r="DO56" t="n">
+        <v>99.03787154417243</v>
+      </c>
+      <c r="DP56" t="n">
+        <v>23.51993835025934</v>
+      </c>
+      <c r="DQ56" t="n">
+        <v>0.01118359739049394</v>
+      </c>
+      <c r="DR56" t="n">
+        <v>5</v>
+      </c>
+      <c r="DS56" t="n">
+        <v>7</v>
+      </c>
+      <c r="DT56" t="n">
+        <v>155.6986048606588</v>
+      </c>
+      <c r="DU56" t="n">
+        <v>21.28820095733785</v>
+      </c>
+      <c r="DV56" t="n">
+        <v>0.008474576271186441</v>
+      </c>
+      <c r="DW56" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX56" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY56" t="n">
+        <v>23.61261433123312</v>
+      </c>
+      <c r="DZ56" t="n">
+        <v>9.41629792788369</v>
+      </c>
+      <c r="EA56" t="n">
+        <v>0.005488761108207005</v>
+      </c>
+      <c r="EB56" t="n">
+        <v>5</v>
+      </c>
+      <c r="EC56" t="n">
+        <v>6</v>
+      </c>
+      <c r="ED56" t="n">
+        <v>77.29550466438727</v>
+      </c>
+      <c r="EE56" t="n">
+        <v>19.9383346867948</v>
+      </c>
+      <c r="EF56" t="n">
+        <v>0.001921229586935639</v>
+      </c>
+      <c r="EG56" t="n">
+        <v>4</v>
+      </c>
+      <c r="EH56" t="n">
+        <v>5</v>
+      </c>
+      <c r="EI56" t="n">
+        <v>73.54884158683556</v>
+      </c>
+      <c r="EJ56" t="n">
+        <v>20.02097665382085</v>
+      </c>
+      <c r="EK56" t="n">
+        <v>0.001444043321299639</v>
+      </c>
+      <c r="EL56" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM56" t="n">
+        <v>2</v>
+      </c>
+      <c r="EN56" t="n">
+        <v>92.78232590315895</v>
+      </c>
+      <c r="EO56" t="n">
+        <v>24.47039027069246</v>
+      </c>
+      <c r="EP56" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ56" t="n">
+        <v>4</v>
+      </c>
+      <c r="ER56" t="n">
+        <v>4</v>
+      </c>
+      <c r="ES56" t="n">
+        <v>76.17250159998686</v>
+      </c>
+      <c r="ET56" t="n">
+        <v>21.20988861356891</v>
+      </c>
+      <c r="EU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV56" t="n">
+        <v>5</v>
+      </c>
+      <c r="EW56" t="n">
+        <v>5</v>
+      </c>
+      <c r="EX56" t="n">
+        <v>71.06222625277088</v>
+      </c>
+      <c r="EY56" t="n">
+        <v>20.39632319806685</v>
+      </c>
+      <c r="EZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA56" t="n">
+        <v>5</v>
+      </c>
+      <c r="FB56" t="n">
+        <v>8</v>
+      </c>
+      <c r="FC56" t="n">
+        <v>184.6641281805603</v>
+      </c>
+      <c r="FD56" t="n">
+        <v>22.28964787444754</v>
+      </c>
+      <c r="FE56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>13</v>
+      </c>
+      <c r="E57" t="n">
+        <v>30</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.8839430894308943</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>9</v>
+      </c>
+      <c r="D58" t="n">
+        <v>40.33559222324621</v>
+      </c>
+      <c r="E58" t="n">
+        <v>31.35936861609302</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>12</v>
+      </c>
+      <c r="I58" t="n">
+        <v>34.42841203941239</v>
+      </c>
+      <c r="J58" t="n">
+        <v>28.67007731648684</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.04242424242424243</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>8</v>
+      </c>
+      <c r="N58" t="n">
+        <v>42.50257799007572</v>
+      </c>
+      <c r="O58" t="n">
+        <v>32.6715793735998</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.02835332606324973</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7</v>
+      </c>
+      <c r="S58" t="n">
+        <v>44.59750553562385</v>
+      </c>
+      <c r="T58" t="n">
+        <v>32.23909699417774</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.01552238805970149</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1</v>
+      </c>
+      <c r="W58" t="n">
+        <v>6</v>
+      </c>
+      <c r="X58" t="n">
+        <v>45.43575864080302</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>33.31237436320452</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.01125541125541126</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>46.75022281586831</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>35.65303477810674</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.008710217755443886</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>51.16483167176455</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>39.03126951560761</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0.007441327990841442</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>56.69656074225314</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>42.38145231112308</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.007008086253369272</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>65.45397025560958</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>45.82818152864264</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.006400787789266372</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>39.55684266537071</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>30.26494576484089</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>37.9495278846347</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>30.31088913245535</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>36.62491795737726</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>30.53836465785834</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>12</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>35.45110170706826</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>29.58522797420554</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10.65624490876385</v>
+      </c>
+      <c r="E59" t="n">
+        <v>24.85960578931211</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.7346637102734663</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>14.09984239470625</v>
+      </c>
+      <c r="J59" t="n">
+        <v>45.21307578811933</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.7318676337262012</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>13.36306209562122</v>
+      </c>
+      <c r="O59" t="n">
+        <v>42.96415211949304</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.7318346957311535</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>11.12148820976761</v>
+      </c>
+      <c r="T59" t="n">
+        <v>35.09273429073318</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.7309714285714286</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1</v>
+      </c>
+      <c r="X59" t="n">
+        <v>11.12148820976761</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>35.09273429073318</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.7309714285714286</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>22.24769650997604</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>42.06185920760042</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.7308219178082191</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>14.63247672132097</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>40.19930814081258</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0.7301623599359708</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>14.03424383427907</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>49.51121085168489</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.7297175141242938</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>16.33401359127634</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>40.88875150943105</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0.7270847691247415</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>17.27464104230522</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>39.03928938521396</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0.7264563665668893</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>15.55634918610405</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>39.4971478889049</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0.7260430994956442</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>17.0926884953772</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>42.06185920760042</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0.7245977011494252</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>9.883698700385398</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>53.12897043986454</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>0.7206487533284919</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>15.34235168095298</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>35.94440151122286</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>0.6762505843852268</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>15.68438714135812</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>33.1655034227426</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>0.6761927255550307</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>16.02515383874849</v>
+      </c>
+      <c r="CB59" t="n">
+        <v>38.46210255996587</v>
+      </c>
+      <c r="CC59" t="n">
+        <v>0.6755821996771962</v>
+      </c>
+      <c r="CD59" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE59" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>15.74355026669652</v>
+      </c>
+      <c r="CG59" t="n">
+        <v>35.05620487160583</v>
+      </c>
+      <c r="CH59" t="n">
+        <v>0.6736421349635552</v>
+      </c>
+      <c r="CI59" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ59" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK59" t="n">
+        <v>15.08807476121457</v>
+      </c>
+      <c r="CL59" t="n">
+        <v>37.05145071383846</v>
+      </c>
+      <c r="CM59" t="n">
+        <v>0.6690357735133855</v>
+      </c>
+      <c r="CN59" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO59" t="n">
+        <v>7</v>
+      </c>
+      <c r="CP59" t="n">
+        <v>16.99878459437469</v>
+      </c>
+      <c r="CQ59" t="n">
+        <v>37.49446240105066</v>
+      </c>
+      <c r="CR59" t="n">
+        <v>0.6675245671502106</v>
+      </c>
+      <c r="CS59" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT59" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU59" t="n">
+        <v>13</v>
+      </c>
+      <c r="CV59" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="CW59" t="n">
+        <v>0.2031448135937104</v>
+      </c>
+      <c r="CX59" t="n">
+        <v>2</v>
+      </c>
+      <c r="CY59" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ59" t="n">
+        <v>8.602325267042627</v>
+      </c>
+      <c r="DA59" t="n">
+        <v>26.83695627716046</v>
+      </c>
+      <c r="DB59" t="n">
+        <v>0.09495472186287193</v>
+      </c>
+      <c r="DC59" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD59" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="DF59" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="DG59" t="n">
+        <v>0.06908150064683052</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>23.12228362424439</v>
+      </c>
+      <c r="E60" t="n">
+        <v>20.013995103427</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.7067812798471824</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>20.33595388488485</v>
+      </c>
+      <c r="J60" t="n">
+        <v>24.18803887233928</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.7062737642585551</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="n">
+        <v>21.40872096444188</v>
+      </c>
+      <c r="O60" t="n">
+        <v>26.04323328621084</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.7057142857142857</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>25.0249875124844</v>
+      </c>
+      <c r="T60" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.7054337464251669</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" t="n">
+        <v>2</v>
+      </c>
+      <c r="X60" t="n">
+        <v>11.89771219838316</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>13.96026106091462</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.7051526717557252</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.6986817325800376</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>163.942740681685</v>
+      </c>
+      <c r="E61" t="n">
+        <v>87.79648183282872</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9475527800672034</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>151.2142519738136</v>
+      </c>
+      <c r="J61" t="n">
+        <v>69.3757882838098</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9447333992788538</v>
+      </c>
+      <c r="L61" t="n">
+        <v>4</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>159.2349207931476</v>
+      </c>
+      <c r="O61" t="n">
+        <v>83.70280759926754</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.9443597076580871</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>10</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>177.6819519058079</v>
+      </c>
+      <c r="T61" t="n">
+        <v>89.06715824413592</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.9398459138518354</v>
+      </c>
+      <c r="V61" t="n">
+        <v>11</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" t="n">
+        <v>182.9783684847292</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>86.94550496335813</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.9396335061877644</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>186.8840612351679</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>94.47751055145346</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.9387442816838548</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>174.3356632172194</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>92.1089638661178</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.9380704665858173</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>180.8646556645025</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>95.5718385894137</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.9379692955186761</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>157.7673705487815</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>66.20077952620002</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.9364504182363834</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>174.0565680716729</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>90.74496619035619</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.9297167929796569</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>159.2324702811482</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>73.13476517738346</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0.9249617395740339</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>177.8894038440739</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>94.42118406374705</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.9245043817251161</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>166.9513216529084</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>76.67415222768825</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>0.9203066357901462</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>166.9513216529084</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>76.67415222768825</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>0.9203066357901462</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>15</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>187.7821199355094</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>93.94049504338659</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>0.9159747061829331</v>
+      </c>
+      <c r="BY61" t="n">
+        <v>6</v>
+      </c>
+      <c r="BZ61" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>151.8273724346442</v>
+      </c>
+      <c r="CB61" t="n">
+        <v>81.53651992593657</v>
+      </c>
+      <c r="CC61" t="n">
+        <v>0.9088344966057941</v>
+      </c>
+      <c r="CD61" t="n">
+        <v>16</v>
+      </c>
+      <c r="CE61" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>188.2991119351219</v>
+      </c>
+      <c r="CG61" t="n">
+        <v>94.08757740648987</v>
+      </c>
+      <c r="CH61" t="n">
+        <v>0.9075382991652541</v>
+      </c>
+      <c r="CI61" t="n">
+        <v>9</v>
+      </c>
+      <c r="CJ61" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK61" t="n">
+        <v>165.1157472805062</v>
+      </c>
+      <c r="CL61" t="n">
+        <v>80.07652589866771</v>
+      </c>
+      <c r="CM61" t="n">
+        <v>0.9059215667511922</v>
+      </c>
+      <c r="CN61" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO61" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP61" t="n">
+        <v>171.501486874021</v>
+      </c>
+      <c r="CQ61" t="n">
+        <v>74.3884399621339</v>
+      </c>
+      <c r="CR61" t="n">
+        <v>0.9006395432289757</v>
+      </c>
+      <c r="CS61" t="n">
+        <v>11</v>
+      </c>
+      <c r="CT61" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU61" t="n">
+        <v>162.7754076429647</v>
+      </c>
+      <c r="CV61" t="n">
+        <v>73.5158240713446</v>
+      </c>
+      <c r="CW61" t="n">
+        <v>0.8936245100391969</v>
+      </c>
+      <c r="CX61" t="n">
+        <v>12</v>
+      </c>
+      <c r="CY61" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ61" t="n">
+        <v>165.4804373571964</v>
+      </c>
+      <c r="DA61" t="n">
+        <v>71.47507530973678</v>
+      </c>
+      <c r="DB61" t="n">
+        <v>0.8913576684461116</v>
+      </c>
+      <c r="DC61" t="n">
+        <v>13</v>
+      </c>
+      <c r="DD61" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE61" t="n">
+        <v>181.6258910114807</v>
+      </c>
+      <c r="DF61" t="n">
+        <v>76.25521059479898</v>
+      </c>
+      <c r="DG61" t="n">
+        <v>0.8889778660431148</v>
+      </c>
+      <c r="DH61" t="n">
+        <v>5</v>
+      </c>
+      <c r="DI61" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ61" t="n">
+        <v>165.6589535427798</v>
+      </c>
+      <c r="DK61" t="n">
+        <v>78.21267302823898</v>
+      </c>
+      <c r="DL61" t="n">
+        <v>0.8870949800568895</v>
+      </c>
+      <c r="DM61" t="n">
+        <v>3</v>
+      </c>
+      <c r="DN61" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO61" t="n">
+        <v>119.0441094720776</v>
+      </c>
+      <c r="DP61" t="n">
+        <v>68.42651167493489</v>
+      </c>
+      <c r="DQ61" t="n">
+        <v>0.8629043818989822</v>
+      </c>
+      <c r="DR61" t="n">
+        <v>8</v>
+      </c>
+      <c r="DS61" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT61" t="n">
+        <v>163.6934804919107</v>
+      </c>
+      <c r="DU61" t="n">
+        <v>79.14512377451911</v>
+      </c>
+      <c r="DV61" t="n">
+        <v>0.85773452060468</v>
+      </c>
+      <c r="DW61" t="n">
+        <v>7</v>
+      </c>
+      <c r="DX61" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY61" t="n">
+        <v>167.384241716477</v>
+      </c>
+      <c r="DZ61" t="n">
+        <v>81.71893522923558</v>
+      </c>
+      <c r="EA61" t="n">
+        <v>0.8484611704672301</v>
+      </c>
+      <c r="EB61" t="n">
+        <v>11</v>
+      </c>
+      <c r="EC61" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED61" t="n">
+        <v>168.5731583681762</v>
+      </c>
+      <c r="EE61" t="n">
+        <v>74.16811796332857</v>
+      </c>
+      <c r="EF61" t="n">
+        <v>0.7133876563643887</v>
+      </c>
+      <c r="EG61" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH61" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI61" t="n">
+        <v>137.1868150451137</v>
+      </c>
+      <c r="EJ61" t="n">
+        <v>75.1176854453508</v>
+      </c>
+      <c r="EK61" t="n">
+        <v>0.5479506383757646</v>
+      </c>
+      <c r="EL61" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM61" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN61" t="n">
+        <v>82.89865801085081</v>
+      </c>
+      <c r="EO61" t="n">
+        <v>67.09088984355476</v>
+      </c>
+      <c r="EP61" t="n">
+        <v>0.1882360101025469</v>
+      </c>
+      <c r="EQ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="ER61" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES61" t="n">
+        <v>33.95094500402995</v>
+      </c>
+      <c r="ET61" t="n">
+        <v>36.80881536926839</v>
+      </c>
+      <c r="EU61" t="n">
+        <v>0.1542836886289296</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.6192560175054704</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="n">
+        <v>17.00735135169495</v>
+      </c>
+      <c r="J62" t="n">
+        <v>142.8484774157569</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.490484429065744</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>14.71960144387974</v>
+      </c>
+      <c r="O62" t="n">
+        <v>137.4635305170874</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.4858974358974359</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9187866927592955</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9255499153976311</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>198.2166491493588</v>
+      </c>
+      <c r="E65" t="n">
+        <v>16.70329308849007</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.3618379068283344</v>
+      </c>
+      <c r="G65" t="n">
+        <v>12</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>219.2723239280697</v>
+      </c>
+      <c r="J65" t="n">
+        <v>38.96237064823715</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.3407079646017699</v>
+      </c>
+      <c r="L65" t="n">
+        <v>7</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>198.3851472935075</v>
+      </c>
+      <c r="O65" t="n">
+        <v>17.55063222103479</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.3151898734177215</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>10</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>215.56978761722</v>
+      </c>
+      <c r="T65" t="n">
+        <v>36.01697130829051</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.2965041001294778</v>
+      </c>
+      <c r="V65" t="n">
+        <v>11</v>
+      </c>
+      <c r="W65" t="n">
+        <v>2</v>
+      </c>
+      <c r="X65" t="n">
+        <v>217.9744298559029</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>39.78403235934275</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.2513988808952838</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>200.8946656003257</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>16.93779468788333</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0.2142390594382756</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>209.4928153169494</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>33.11637381833997</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>0.2033542976939203</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>193.5183696060919</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>17.26584417281704</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.1942355889724311</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>197.2840074406355</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>16.20405592965627</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0.1848428835489834</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.1717709720372836</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>217.538246956458</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>11.3431330181157</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0.1629535327816677</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>215.5062876112899</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>13.64404632064843</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0.153015873015873</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>225.2942520349776</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>12.27548369719092</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>0.1338582677165354</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>78.46680826948423</v>
+      </c>
+      <c r="E66" t="n">
+        <v>32.05245700410501</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.8519553072625698</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>87.65557597780075</v>
+      </c>
+      <c r="J66" t="n">
+        <v>19.48557158514987</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.4462338949454906</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>100.5020729471122</v>
+      </c>
+      <c r="O66" t="n">
+        <v>8.498365855987975</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.336204774796948</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>25.26577477537548</v>
+      </c>
+      <c r="E67" t="n">
+        <v>33.25187964611926</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.8438898684388987</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" t="n">
+        <v>24.40400695696417</v>
+      </c>
+      <c r="J67" t="n">
+        <v>31.84259124637866</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.8421838924351487</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>27.83682612815062</v>
+      </c>
+      <c r="O67" t="n">
+        <v>34.36083041293773</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.8324735270160195</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>25.78878098107384</v>
+      </c>
+      <c r="T67" t="n">
+        <v>32.99288729779342</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.8319533052803041</v>
+      </c>
+      <c r="V67" t="n">
+        <v>7</v>
+      </c>
+      <c r="W67" t="n">
+        <v>3</v>
+      </c>
+      <c r="X67" t="n">
+        <v>25.17955519861302</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>30.35061778613411</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.8302864938608459</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>25.34909049431338</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>46.75735236302415</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0.8022922636103151</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>29.74962184633613</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>33.25296979218548</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0.7829816201497617</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>26.22376689976524</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>29.94623280989</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.7493504717626145</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>30.58083550199373</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>30.43332876962361</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0.7177805111384448</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0.716411796832332</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0.716411796832332</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>35.22309848191477</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>30.66304326420035</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0.7152426520847573</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>30.61952898977311</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>31.59113799786263</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>0.7144420131291028</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/kwatchar3/kwatchar3.xlsx
+++ b/kwatchar3/kwatchar3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JA67"/>
+  <dimension ref="A1:MH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9525,6 +9525,8058 @@
         <v>0.7144420131291028</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>53.48965186971081</v>
+      </c>
+      <c r="E68" t="n">
+        <v>40.33330522290581</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.7734563371422581</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>56.34245488281658</v>
+      </c>
+      <c r="J68" t="n">
+        <v>37.1199257662093</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.7284071926893977</v>
+      </c>
+      <c r="L68" t="n">
+        <v>8</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>53.14094466604823</v>
+      </c>
+      <c r="O68" t="n">
+        <v>39.2663978485422</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.7232125173301643</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>7</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>55.98566836011155</v>
+      </c>
+      <c r="T68" t="n">
+        <v>40.55844738548294</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.7186819711062735</v>
+      </c>
+      <c r="V68" t="n">
+        <v>6</v>
+      </c>
+      <c r="W68" t="n">
+        <v>2</v>
+      </c>
+      <c r="X68" t="n">
+        <v>51.07454723245229</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>40.47144054762568</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.7035820895522388</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>36.85105154537656</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>37.02551672683163</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0.6169919179972403</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>48.91380173325316</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>40.18656491913684</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0.5636966824644549</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>44.91867651656714</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>39.34780807109845</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.5585567823343849</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.3777803793022712</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>79.79278719839839</v>
+      </c>
+      <c r="E69" t="n">
+        <v>77.44460385763921</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.7348111323906932</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>85.43863294786499</v>
+      </c>
+      <c r="J69" t="n">
+        <v>74.18733045473465</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.7323857370420291</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>95.31788919190353</v>
+      </c>
+      <c r="O69" t="n">
+        <v>57.57820768311566</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.693523239644347</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>99.98999949994999</v>
+      </c>
+      <c r="T69" t="n">
+        <v>47.68181577452305</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.6322633250364775</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1</v>
+      </c>
+      <c r="X69" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>57</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0.4579015544041451</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.226168511610347</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12.32551692007028</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.8553459119496856</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.04138126514911</v>
+      </c>
+      <c r="J70" t="n">
+        <v>11.21011448053349</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.497999199359359</v>
+      </c>
+      <c r="O70" t="n">
+        <v>7.402702209328699</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.8433734939759037</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>7</v>
+      </c>
+      <c r="R70" t="n">
+        <v>10</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4.119327388238022</v>
+      </c>
+      <c r="T70" t="n">
+        <v>12.28693851744558</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.8427672955974843</v>
+      </c>
+      <c r="V70" t="n">
+        <v>7</v>
+      </c>
+      <c r="W70" t="n">
+        <v>8</v>
+      </c>
+      <c r="X70" t="n">
+        <v>4.109609335312651</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>11.94915152729357</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.8364779874213837</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>4.031128874149275</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>11.7671085552059</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0.8364779874213837</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>3.876275300347181</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>12.06360693345477</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>0.83125</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>4.022128142277345</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>11.32050556087696</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.83125</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>4.102844541697057</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>10.75742637540328</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0.8164556962025317</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>3.982383080518498</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>11.52985255760021</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.8152866242038217</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>2.046338192968113</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>7.790218225441442</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0.815028901734104</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>4.437341546466758</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>10.80046295304049</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0.7974683544303798</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>4.677236706633153</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>11.3833319776584</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>0.7898089171974523</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>4.238742991590824</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>10.65383180979524</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>0.7848101265822784</v>
+      </c>
+      <c r="BT70" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>12</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>21</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>0.7486910994764397</v>
+      </c>
+      <c r="BY70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ70" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA70" t="n">
+        <v>10.72800074571213</v>
+      </c>
+      <c r="CB70" t="n">
+        <v>19.5386795869117</v>
+      </c>
+      <c r="CC70" t="n">
+        <v>0.7024390243902439</v>
+      </c>
+      <c r="CD70" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE70" t="n">
+        <v>6</v>
+      </c>
+      <c r="CF70" t="n">
+        <v>10.72800074571213</v>
+      </c>
+      <c r="CG70" t="n">
+        <v>19.5386795869117</v>
+      </c>
+      <c r="CH70" t="n">
+        <v>0.7024390243902439</v>
+      </c>
+      <c r="CI70" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK70" t="n">
+        <v>18.78533707147383</v>
+      </c>
+      <c r="CL70" t="n">
+        <v>31.87475490101846</v>
+      </c>
+      <c r="CM70" t="n">
+        <v>0.6941747572815534</v>
+      </c>
+      <c r="CN70" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO70" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP70" t="n">
+        <v>13.65853416569859</v>
+      </c>
+      <c r="CQ70" t="n">
+        <v>23.73230334843675</v>
+      </c>
+      <c r="CR70" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="CS70" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT70" t="n">
+        <v>6</v>
+      </c>
+      <c r="CU70" t="n">
+        <v>11.26230465636761</v>
+      </c>
+      <c r="CV70" t="n">
+        <v>20.06655592438988</v>
+      </c>
+      <c r="CW70" t="n">
+        <v>0.6620370370370371</v>
+      </c>
+      <c r="CX70" t="n">
+        <v>2</v>
+      </c>
+      <c r="CY70" t="n">
+        <v>5</v>
+      </c>
+      <c r="CZ70" t="n">
+        <v>12.67972831743968</v>
+      </c>
+      <c r="DA70" t="n">
+        <v>22.73269694084012</v>
+      </c>
+      <c r="DB70" t="n">
+        <v>0.6457399103139013</v>
+      </c>
+      <c r="DC70" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD70" t="n">
+        <v>6</v>
+      </c>
+      <c r="DE70" t="n">
+        <v>11.94518731540029</v>
+      </c>
+      <c r="DF70" t="n">
+        <v>21.26580294745533</v>
+      </c>
+      <c r="DG70" t="n">
+        <v>0.6355555555555555</v>
+      </c>
+      <c r="DH70" t="n">
+        <v>4</v>
+      </c>
+      <c r="DI70" t="n">
+        <v>7</v>
+      </c>
+      <c r="DJ70" t="n">
+        <v>10.36841994864237</v>
+      </c>
+      <c r="DK70" t="n">
+        <v>19.07141862223319</v>
+      </c>
+      <c r="DL70" t="n">
+        <v>0.6327433628318584</v>
+      </c>
+      <c r="DM70" t="n">
+        <v>2</v>
+      </c>
+      <c r="DN70" t="n">
+        <v>3</v>
+      </c>
+      <c r="DO70" t="n">
+        <v>14.85395570210171</v>
+      </c>
+      <c r="DP70" t="n">
+        <v>25.56247249387273</v>
+      </c>
+      <c r="DQ70" t="n">
+        <v>0.62882096069869</v>
+      </c>
+      <c r="DR70" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS70" t="n">
+        <v>3</v>
+      </c>
+      <c r="DT70" t="n">
+        <v>16.60383991732033</v>
+      </c>
+      <c r="DU70" t="n">
+        <v>28.26216552212516</v>
+      </c>
+      <c r="DV70" t="n">
+        <v>0.3825857519788918</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>54.48005496407735</v>
+      </c>
+      <c r="E71" t="n">
+        <v>48.09560790758341</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.8039140445126631</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>56.86948996508487</v>
+      </c>
+      <c r="J71" t="n">
+        <v>42.80835847770334</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.7964117091595845</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>62.09798708492893</v>
+      </c>
+      <c r="O71" t="n">
+        <v>42.05900616990373</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.7925869022469753</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>49.73036672899165</v>
+      </c>
+      <c r="T71" t="n">
+        <v>40.59479646457167</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.7823607679148451</v>
+      </c>
+      <c r="V71" t="n">
+        <v>5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>4</v>
+      </c>
+      <c r="X71" t="n">
+        <v>51.38117059155061</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>38.57204258443934</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.7594527835835075</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>53.10636227690345</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>43.09079166748521</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.7499526066350711</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>49.16716383929421</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>37.38034242753803</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>0.7178564665782996</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>46.87913067199501</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>43.22935182840627</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.7064063684609553</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>53.0112016464445</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>44.86368241685027</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.6518987341772152</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>52.48491846870553</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>50.62278801751901</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0.5109109109109109</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6.867505351857067</v>
+      </c>
+      <c r="E72" t="n">
+        <v>12.20839803983151</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.4607703281027104</v>
+      </c>
+      <c r="G72" t="n">
+        <v>8</v>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7.062223445912768</v>
+      </c>
+      <c r="J72" t="n">
+        <v>12.40904408083072</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.458392101551481</v>
+      </c>
+      <c r="L72" t="n">
+        <v>7</v>
+      </c>
+      <c r="M72" t="n">
+        <v>8</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.249827584156743</v>
+      </c>
+      <c r="O72" t="n">
+        <v>12.69365545809752</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.4566145092460882</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>10</v>
+      </c>
+      <c r="R72" t="n">
+        <v>8</v>
+      </c>
+      <c r="S72" t="n">
+        <v>6.677075208003377</v>
+      </c>
+      <c r="T72" t="n">
+        <v>11.86446088529797</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="V72" t="n">
+        <v>14</v>
+      </c>
+      <c r="W72" t="n">
+        <v>8</v>
+      </c>
+      <c r="X72" t="n">
+        <v>6.183990260114426</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>11.99311097021126</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.4520166898470097</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>6.537342128515468</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>11.55763589011269</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0.4514767932489451</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>7.504080522608744</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>12.7775312999988</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>0.4484679665738162</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>7.710747129933334</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>13.21331585849409</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.4478442280945758</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>6.22445191586316</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>12.16042898329871</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0.4459644322845417</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>6.348174519331613</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>11.31851772704425</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0.4453781512605042</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>6.087888127466862</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>12.65329443715831</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0.4447476125511596</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>6.483826030978931</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>10.29793668654066</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0.4427001569858713</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>8.025566785107593</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>13.72624210125343</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>0.4425770308123249</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>12</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>6.43117407632541</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>11.47388338793802</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>0.4389204545454545</v>
+      </c>
+      <c r="BT72" t="n">
+        <v>13</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BV72" t="n">
+        <v>6.32885627650901</v>
+      </c>
+      <c r="BW72" t="n">
+        <v>11.31851772704425</v>
+      </c>
+      <c r="BX72" t="n">
+        <v>0.4344146685472496</v>
+      </c>
+      <c r="BY72" t="n">
+        <v>13</v>
+      </c>
+      <c r="BZ72" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA72" t="n">
+        <v>6.328139653478177</v>
+      </c>
+      <c r="CB72" t="n">
+        <v>11.22214364266061</v>
+      </c>
+      <c r="CC72" t="n">
+        <v>0.4303977272727273</v>
+      </c>
+      <c r="CD72" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE72" t="n">
+        <v>6</v>
+      </c>
+      <c r="CF72" t="n">
+        <v>8.116436607888744</v>
+      </c>
+      <c r="CG72" t="n">
+        <v>12.90994448735806</v>
+      </c>
+      <c r="CH72" t="n">
+        <v>0.4162011173184357</v>
+      </c>
+      <c r="CI72" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ72" t="n">
+        <v>8</v>
+      </c>
+      <c r="CK72" t="n">
+        <v>8.360671411213396</v>
+      </c>
+      <c r="CL72" t="n">
+        <v>14.33656828123957</v>
+      </c>
+      <c r="CM72" t="n">
+        <v>0.4131054131054131</v>
+      </c>
+      <c r="CN72" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO72" t="n">
+        <v>8</v>
+      </c>
+      <c r="CP72" t="n">
+        <v>12.55229062761056</v>
+      </c>
+      <c r="CQ72" t="n">
+        <v>18.24938355123263</v>
+      </c>
+      <c r="CR72" t="n">
+        <v>0.4089635854341737</v>
+      </c>
+      <c r="CS72" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT72" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU72" t="n">
+        <v>7.313301238155037</v>
+      </c>
+      <c r="CV72" t="n">
+        <v>13.67250891387532</v>
+      </c>
+      <c r="CW72" t="n">
+        <v>0.4070221066319896</v>
+      </c>
+      <c r="CX72" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY72" t="n">
+        <v>7</v>
+      </c>
+      <c r="CZ72" t="n">
+        <v>8.616263691415206</v>
+      </c>
+      <c r="DA72" t="n">
+        <v>12.33896267925307</v>
+      </c>
+      <c r="DB72" t="n">
+        <v>0.398876404494382</v>
+      </c>
+      <c r="DC72" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD72" t="n">
+        <v>9</v>
+      </c>
+      <c r="DE72" t="n">
+        <v>12.12674116321732</v>
+      </c>
+      <c r="DF72" t="n">
+        <v>18.38028048599372</v>
+      </c>
+      <c r="DG72" t="n">
+        <v>0.389367816091954</v>
+      </c>
+      <c r="DH72" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI72" t="n">
+        <v>6</v>
+      </c>
+      <c r="DJ72" t="n">
+        <v>13.7321312465119</v>
+      </c>
+      <c r="DK72" t="n">
+        <v>18.34588315048988</v>
+      </c>
+      <c r="DL72" t="n">
+        <v>0.3837772397094431</v>
+      </c>
+      <c r="DM72" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN72" t="n">
+        <v>5</v>
+      </c>
+      <c r="DO72" t="n">
+        <v>14.0168549333373</v>
+      </c>
+      <c r="DP72" t="n">
+        <v>19.41434177783699</v>
+      </c>
+      <c r="DQ72" t="n">
+        <v>0.3836104513064133</v>
+      </c>
+      <c r="DR72" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS72" t="n">
+        <v>4</v>
+      </c>
+      <c r="DT72" t="n">
+        <v>14.73227748856232</v>
+      </c>
+      <c r="DU72" t="n">
+        <v>21.15277759538922</v>
+      </c>
+      <c r="DV72" t="n">
+        <v>0.3664459161147903</v>
+      </c>
+      <c r="DW72" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX72" t="n">
+        <v>7</v>
+      </c>
+      <c r="DY72" t="n">
+        <v>13.26414339488231</v>
+      </c>
+      <c r="DZ72" t="n">
+        <v>18.16418178724271</v>
+      </c>
+      <c r="EA72" t="n">
+        <v>0.3632538569424965</v>
+      </c>
+      <c r="EB72" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC72" t="n">
+        <v>4</v>
+      </c>
+      <c r="ED72" t="n">
+        <v>5.551245493635842</v>
+      </c>
+      <c r="EE72" t="n">
+        <v>12.9551817700053</v>
+      </c>
+      <c r="EF72" t="n">
+        <v>0.3582766439909297</v>
+      </c>
+      <c r="EG72" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH72" t="n">
+        <v>2</v>
+      </c>
+      <c r="EI72" t="n">
+        <v>12.49888883950178</v>
+      </c>
+      <c r="EJ72" t="n">
+        <v>24.17988144442951</v>
+      </c>
+      <c r="EK72" t="n">
+        <v>0.3426724137931034</v>
+      </c>
+      <c r="EL72" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM72" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN72" t="n">
+        <v>13.68393218340401</v>
+      </c>
+      <c r="EO72" t="n">
+        <v>23.573024837725</v>
+      </c>
+      <c r="EP72" t="n">
+        <v>0.3162878787878788</v>
+      </c>
+      <c r="EQ72" t="n">
+        <v>5</v>
+      </c>
+      <c r="ER72" t="n">
+        <v>15</v>
+      </c>
+      <c r="ES72" t="n">
+        <v>10.12916580968048</v>
+      </c>
+      <c r="ET72" t="n">
+        <v>15.20287801700717</v>
+      </c>
+      <c r="EU72" t="n">
+        <v>0.3100158982511924</v>
+      </c>
+      <c r="EV72" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW72" t="n">
+        <v>8</v>
+      </c>
+      <c r="EX72" t="n">
+        <v>13.23108946364817</v>
+      </c>
+      <c r="EY72" t="n">
+        <v>18.43908891458577</v>
+      </c>
+      <c r="EZ72" t="n">
+        <v>0.2968980797636632</v>
+      </c>
+      <c r="FA72" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB72" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC72" t="n">
+        <v>5.993051532121735</v>
+      </c>
+      <c r="FD72" t="n">
+        <v>10.02358330250326</v>
+      </c>
+      <c r="FE72" t="n">
+        <v>0.292616226071103</v>
+      </c>
+      <c r="FF72" t="n">
+        <v>4</v>
+      </c>
+      <c r="FG72" t="n">
+        <v>15</v>
+      </c>
+      <c r="FH72" t="n">
+        <v>10.39230484541326</v>
+      </c>
+      <c r="FI72" t="n">
+        <v>15.51426829649479</v>
+      </c>
+      <c r="FJ72" t="n">
+        <v>0.265886287625418</v>
+      </c>
+      <c r="FK72" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL72" t="n">
+        <v>10</v>
+      </c>
+      <c r="FM72" t="n">
+        <v>11.66785708212476</v>
+      </c>
+      <c r="FN72" t="n">
+        <v>17.72690202927617</v>
+      </c>
+      <c r="FO72" t="n">
+        <v>0.2642089093701997</v>
+      </c>
+      <c r="FP72" t="n">
+        <v>2</v>
+      </c>
+      <c r="FQ72" t="n">
+        <v>11</v>
+      </c>
+      <c r="FR72" t="n">
+        <v>11.45456680070076</v>
+      </c>
+      <c r="FS72" t="n">
+        <v>17.04050170109003</v>
+      </c>
+      <c r="FT72" t="n">
+        <v>0.2317666126418152</v>
+      </c>
+      <c r="FU72" t="n">
+        <v>3</v>
+      </c>
+      <c r="FV72" t="n">
+        <v>2</v>
+      </c>
+      <c r="FW72" t="n">
+        <v>4.079215610874228</v>
+      </c>
+      <c r="FX72" t="n">
+        <v>9.325234581499814</v>
+      </c>
+      <c r="FY72" t="n">
+        <v>0.2310418143160879</v>
+      </c>
+      <c r="FZ72" t="n">
+        <v>3</v>
+      </c>
+      <c r="GA72" t="n">
+        <v>15</v>
+      </c>
+      <c r="GB72" t="n">
+        <v>10.66608794726377</v>
+      </c>
+      <c r="GC72" t="n">
+        <v>15.93669962889834</v>
+      </c>
+      <c r="GD72" t="n">
+        <v>0.2198581560283688</v>
+      </c>
+      <c r="GE72" t="n">
+        <v>2</v>
+      </c>
+      <c r="GF72" t="n">
+        <v>12</v>
+      </c>
+      <c r="GG72" t="n">
+        <v>11.19060283616279</v>
+      </c>
+      <c r="GH72" t="n">
+        <v>16.55186653263872</v>
+      </c>
+      <c r="GI72" t="n">
+        <v>0.2062706270627063</v>
+      </c>
+      <c r="GJ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="GK72" t="n">
+        <v>13</v>
+      </c>
+      <c r="GL72" t="n">
+        <v>11.31292279750119</v>
+      </c>
+      <c r="GM72" t="n">
+        <v>16.51181395244024</v>
+      </c>
+      <c r="GN72" t="n">
+        <v>0.1975736568457539</v>
+      </c>
+      <c r="GO72" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP72" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ72" t="n">
+        <v>1.6583123951777</v>
+      </c>
+      <c r="GR72" t="n">
+        <v>9.7082439194738</v>
+      </c>
+      <c r="GS72" t="n">
+        <v>0.1937354988399072</v>
+      </c>
+      <c r="GT72" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU72" t="n">
+        <v>14</v>
+      </c>
+      <c r="GV72" t="n">
+        <v>11.24287969116454</v>
+      </c>
+      <c r="GW72" t="n">
+        <v>15.99218559171948</v>
+      </c>
+      <c r="GX72" t="n">
+        <v>0.1877934272300469</v>
+      </c>
+      <c r="GY72" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ72" t="n">
+        <v>15</v>
+      </c>
+      <c r="HA72" t="n">
+        <v>10.95160793048107</v>
+      </c>
+      <c r="HB72" t="n">
+        <v>16.17893029427867</v>
+      </c>
+      <c r="HC72" t="n">
+        <v>0.1761904761904762</v>
+      </c>
+      <c r="HD72" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE72" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF72" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="HG72" t="n">
+        <v>17</v>
+      </c>
+      <c r="HH72" t="n">
+        <v>0.1267552182163188</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>20.50609665440988</v>
+      </c>
+      <c r="E73" t="n">
+        <v>62.05390801553114</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.8005971422478141</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21.1397466609439</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42.30313883809989</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.7904587993608765</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.2753623188405797</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12.55211358917515</v>
+      </c>
+      <c r="J74" t="n">
+        <v>22.75961335348208</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.2729885057471265</v>
+      </c>
+      <c r="L74" t="n">
+        <v>6</v>
+      </c>
+      <c r="M74" t="n">
+        <v>18</v>
+      </c>
+      <c r="N74" t="n">
+        <v>19.87456323768874</v>
+      </c>
+      <c r="O74" t="n">
+        <v>12.64252084567525</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.2328042328042328</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>6</v>
+      </c>
+      <c r="R74" t="n">
+        <v>17</v>
+      </c>
+      <c r="S74" t="n">
+        <v>20.28595200554479</v>
+      </c>
+      <c r="T74" t="n">
+        <v>11.94916769886724</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.2315789473684211</v>
+      </c>
+      <c r="V74" t="n">
+        <v>6</v>
+      </c>
+      <c r="W74" t="n">
+        <v>16</v>
+      </c>
+      <c r="X74" t="n">
+        <v>20.18207411795129</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>11.04087072862829</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.2299465240641711</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>20.48371954601774</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>11.21850592919782</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0.2293814432989691</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>20.64527791045691</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>11.32464127467179</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>0.2280701754385965</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>19.51844256081924</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>12.73106437027164</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.2245989304812834</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>20.29686032424356</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>14.39707450916597</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0.2242744063324538</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>19.20941121663912</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>13.70445658089057</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>19.12789960267139</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>14.46920953927194</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0.2119565217391304</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>19.9414367499932</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>10.77707421890205</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0.2102689486552567</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>23</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>19.73022573039082</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>14.82389689467234</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>0.2098092643051771</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>22</v>
+      </c>
+      <c r="BQ74" t="n">
+        <v>19.36765002128391</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>14.84765321936261</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>0.2096774193548387</v>
+      </c>
+      <c r="BT74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>13</v>
+      </c>
+      <c r="BV74" t="n">
+        <v>19.85473561435129</v>
+      </c>
+      <c r="BW74" t="n">
+        <v>11.13826475840177</v>
+      </c>
+      <c r="BX74" t="n">
+        <v>0.2090909090909091</v>
+      </c>
+      <c r="BY74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BZ74" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA74" t="n">
+        <v>19.62369756628041</v>
+      </c>
+      <c r="CB74" t="n">
+        <v>10.6016537261125</v>
+      </c>
+      <c r="CC74" t="n">
+        <v>0.2072892938496583</v>
+      </c>
+      <c r="CD74" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE74" t="n">
+        <v>5</v>
+      </c>
+      <c r="CF74" t="n">
+        <v>19.13661412058048</v>
+      </c>
+      <c r="CG74" t="n">
+        <v>8.175573374387879</v>
+      </c>
+      <c r="CH74" t="n">
+        <v>0.1965811965811966</v>
+      </c>
+      <c r="CI74" t="n">
+        <v>5</v>
+      </c>
+      <c r="CJ74" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK74" t="n">
+        <v>20.52843556305903</v>
+      </c>
+      <c r="CL74" t="n">
+        <v>9.886859966642595</v>
+      </c>
+      <c r="CM74" t="n">
+        <v>0.1921487603305785</v>
+      </c>
+      <c r="CN74" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO74" t="n">
+        <v>10</v>
+      </c>
+      <c r="CP74" t="n">
+        <v>20.31026013291476</v>
+      </c>
+      <c r="CQ74" t="n">
+        <v>10.9694525336905</v>
+      </c>
+      <c r="CR74" t="n">
+        <v>0.1913978494623656</v>
+      </c>
+      <c r="CS74" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT74" t="n">
+        <v>8</v>
+      </c>
+      <c r="CU74" t="n">
+        <v>21.23188402870278</v>
+      </c>
+      <c r="CV74" t="n">
+        <v>9.83051642867443</v>
+      </c>
+      <c r="CW74" t="n">
+        <v>0.1897654584221748</v>
+      </c>
+      <c r="CX74" t="n">
+        <v>5</v>
+      </c>
+      <c r="CY74" t="n">
+        <v>9</v>
+      </c>
+      <c r="CZ74" t="n">
+        <v>20.78522336190019</v>
+      </c>
+      <c r="DA74" t="n">
+        <v>11.27870487571465</v>
+      </c>
+      <c r="DB74" t="n">
+        <v>0.1840490797546012</v>
+      </c>
+      <c r="DC74" t="n">
+        <v>5</v>
+      </c>
+      <c r="DD74" t="n">
+        <v>11</v>
+      </c>
+      <c r="DE74" t="n">
+        <v>20.46481355277883</v>
+      </c>
+      <c r="DF74" t="n">
+        <v>10.72890371846071</v>
+      </c>
+      <c r="DG74" t="n">
+        <v>0.1823899371069182</v>
+      </c>
+      <c r="DH74" t="n">
+        <v>5</v>
+      </c>
+      <c r="DI74" t="n">
+        <v>6</v>
+      </c>
+      <c r="DJ74" t="n">
+        <v>20.3441465173809</v>
+      </c>
+      <c r="DK74" t="n">
+        <v>7.797011506324206</v>
+      </c>
+      <c r="DL74" t="n">
+        <v>0.173828125</v>
+      </c>
+      <c r="DM74" t="n">
+        <v>6</v>
+      </c>
+      <c r="DN74" t="n">
+        <v>24</v>
+      </c>
+      <c r="DO74" t="n">
+        <v>20.36598471307816</v>
+      </c>
+      <c r="DP74" t="n">
+        <v>14.6272196796095</v>
+      </c>
+      <c r="DQ74" t="n">
+        <v>0.162621359223301</v>
+      </c>
+      <c r="DR74" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS74" t="n">
+        <v>25</v>
+      </c>
+      <c r="DT74" t="n">
+        <v>24.03494769991189</v>
+      </c>
+      <c r="DU74" t="n">
+        <v>15.9103629260146</v>
+      </c>
+      <c r="DV74" t="n">
+        <v>0.158458244111349</v>
+      </c>
+      <c r="DW74" t="n">
+        <v>5</v>
+      </c>
+      <c r="DX74" t="n">
+        <v>4</v>
+      </c>
+      <c r="DY74" t="n">
+        <v>18.99772565984975</v>
+      </c>
+      <c r="DZ74" t="n">
+        <v>7.171617583602189</v>
+      </c>
+      <c r="EA74" t="n">
+        <v>0.1328976034858388</v>
+      </c>
+      <c r="EB74" t="n">
+        <v>9</v>
+      </c>
+      <c r="EC74" t="n">
+        <v>25</v>
+      </c>
+      <c r="ED74" t="n">
+        <v>27.30775838145762</v>
+      </c>
+      <c r="EE74" t="n">
+        <v>15.78203612845509</v>
+      </c>
+      <c r="EF74" t="n">
+        <v>0.1299694189602446</v>
+      </c>
+      <c r="EG74" t="n">
+        <v>5</v>
+      </c>
+      <c r="EH74" t="n">
+        <v>3</v>
+      </c>
+      <c r="EI74" t="n">
+        <v>18.63464515358422</v>
+      </c>
+      <c r="EJ74" t="n">
+        <v>7.465545860819556</v>
+      </c>
+      <c r="EK74" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="EL74" t="n">
+        <v>8</v>
+      </c>
+      <c r="EM74" t="n">
+        <v>25</v>
+      </c>
+      <c r="EN74" t="n">
+        <v>25.83400425681684</v>
+      </c>
+      <c r="EO74" t="n">
+        <v>15.97777381860023</v>
+      </c>
+      <c r="EP74" t="n">
+        <v>0.07211538461538461</v>
+      </c>
+      <c r="EQ74" t="n">
+        <v>5</v>
+      </c>
+      <c r="ER74" t="n">
+        <v>7</v>
+      </c>
+      <c r="ES74" t="n">
+        <v>27.46765774910963</v>
+      </c>
+      <c r="ET74" t="n">
+        <v>17.72220045279053</v>
+      </c>
+      <c r="EU74" t="n">
+        <v>0.01609195402298851</v>
+      </c>
+      <c r="EV74" t="n">
+        <v>5</v>
+      </c>
+      <c r="EW74" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX74" t="n">
+        <v>20.58923667032527</v>
+      </c>
+      <c r="EY74" t="n">
+        <v>7.760297817881877</v>
+      </c>
+      <c r="EZ74" t="n">
+        <v>0.01236263736263736</v>
+      </c>
+      <c r="FA74" t="n">
+        <v>5</v>
+      </c>
+      <c r="FB74" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC74" t="n">
+        <v>19.91717544108653</v>
+      </c>
+      <c r="FD74" t="n">
+        <v>7.553888037944163</v>
+      </c>
+      <c r="FE74" t="n">
+        <v>0.0081799591002045</v>
+      </c>
+      <c r="FF74" t="n">
+        <v>4</v>
+      </c>
+      <c r="FG74" t="n">
+        <v>7</v>
+      </c>
+      <c r="FH74" t="n">
+        <v>28.19501157449577</v>
+      </c>
+      <c r="FI74" t="n">
+        <v>18.50798353536804</v>
+      </c>
+      <c r="FJ74" t="n">
+        <v>0.007155635062611807</v>
+      </c>
+      <c r="FK74" t="n">
+        <v>4</v>
+      </c>
+      <c r="FL74" t="n">
+        <v>6</v>
+      </c>
+      <c r="FM74" t="n">
+        <v>23.17951681981313</v>
+      </c>
+      <c r="FN74" t="n">
+        <v>16.25299972312803</v>
+      </c>
+      <c r="FO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP74" t="n">
+        <v>4</v>
+      </c>
+      <c r="FQ74" t="n">
+        <v>4</v>
+      </c>
+      <c r="FR74" t="n">
+        <v>25.51194573136279</v>
+      </c>
+      <c r="FS74" t="n">
+        <v>17.42080293786713</v>
+      </c>
+      <c r="FT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU74" t="n">
+        <v>4</v>
+      </c>
+      <c r="FV74" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW74" t="n">
+        <v>26.48372623144336</v>
+      </c>
+      <c r="FX74" t="n">
+        <v>18.21302516646495</v>
+      </c>
+      <c r="FY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ74" t="n">
+        <v>4</v>
+      </c>
+      <c r="GA74" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB74" t="n">
+        <v>26.31645028410092</v>
+      </c>
+      <c r="GC74" t="n">
+        <v>18.6785676348292</v>
+      </c>
+      <c r="GD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE74" t="n">
+        <v>4</v>
+      </c>
+      <c r="GF74" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG74" t="n">
+        <v>25.17617921766526</v>
+      </c>
+      <c r="GH74" t="n">
+        <v>20.29384143034532</v>
+      </c>
+      <c r="GI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ74" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK74" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL74" t="n">
+        <v>22.43880567231687</v>
+      </c>
+      <c r="GM74" t="n">
+        <v>20.49847555307467</v>
+      </c>
+      <c r="GN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO74" t="n">
+        <v>4</v>
+      </c>
+      <c r="GP74" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ74" t="n">
+        <v>24.22324156876543</v>
+      </c>
+      <c r="GR74" t="n">
+        <v>16.5872180449024</v>
+      </c>
+      <c r="GS74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8.373134120507087</v>
+      </c>
+      <c r="E75" t="n">
+        <v>31.98339412882879</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.6345238095238095</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>8.794710840926506</v>
+      </c>
+      <c r="J75" t="n">
+        <v>34.18437404094784</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.6314496314496314</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8</v>
+      </c>
+      <c r="M75" t="n">
+        <v>7</v>
+      </c>
+      <c r="N75" t="n">
+        <v>10.13157879547353</v>
+      </c>
+      <c r="O75" t="n">
+        <v>29.36089614133435</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.6273764258555133</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>8</v>
+      </c>
+      <c r="R75" t="n">
+        <v>10</v>
+      </c>
+      <c r="S75" t="n">
+        <v>9.636767297730982</v>
+      </c>
+      <c r="T75" t="n">
+        <v>29.47734011485625</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.6261319534282018</v>
+      </c>
+      <c r="V75" t="n">
+        <v>7</v>
+      </c>
+      <c r="W75" t="n">
+        <v>2</v>
+      </c>
+      <c r="X75" t="n">
+        <v>8.633840968916628</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>31.02687007525359</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.6257449344457687</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>9.791600100389699</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>30.0824702659379</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0.6248399487836107</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>9.498537899183338</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>35.96024038975391</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0.620253164556962</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>8.2365041127896</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>29.64203096955402</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0.6199261992619927</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>10.02165623786807</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>30.5079395403885</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0.6175349428208387</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>10.07421440700799</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>26.19004328646554</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0.6113861386138614</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>9.483713850721502</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>26.06841249822311</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0.6105651105651105</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>10.01156356213542</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>28.27170416155254</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>0.6071871127633209</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>9.860132971832693</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>27.06820090068788</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>0.6020025031289111</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BQ75" t="n">
+        <v>13.97710180974583</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>38.02938830693967</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>0.6018276762402088</v>
+      </c>
+      <c r="BT75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV75" t="n">
+        <v>13.8091953983938</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>40.28064811103339</v>
+      </c>
+      <c r="BX75" t="n">
+        <v>0.5966494845360825</v>
+      </c>
+      <c r="BY75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ75" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA75" t="n">
+        <v>13.18060677896615</v>
+      </c>
+      <c r="CB75" t="n">
+        <v>35.97530016861878</v>
+      </c>
+      <c r="CC75" t="n">
+        <v>0.5943517329910141</v>
+      </c>
+      <c r="CD75" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE75" t="n">
+        <v>9</v>
+      </c>
+      <c r="CF75" t="n">
+        <v>13.81953659992746</v>
+      </c>
+      <c r="CG75" t="n">
+        <v>33.6685525167244</v>
+      </c>
+      <c r="CH75" t="n">
+        <v>0.5928381962864722</v>
+      </c>
+      <c r="CI75" t="n">
+        <v>5</v>
+      </c>
+      <c r="CJ75" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK75" t="n">
+        <v>12.87478155154487</v>
+      </c>
+      <c r="CL75" t="n">
+        <v>34.22060782627918</v>
+      </c>
+      <c r="CM75" t="n">
+        <v>0.5918884664131813</v>
+      </c>
+      <c r="CN75" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO75" t="n">
+        <v>8</v>
+      </c>
+      <c r="CP75" t="n">
+        <v>13.56771315427498</v>
+      </c>
+      <c r="CQ75" t="n">
+        <v>30.37341565741701</v>
+      </c>
+      <c r="CR75" t="n">
+        <v>0.5842105263157895</v>
+      </c>
+      <c r="CS75" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT75" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU75" t="n">
+        <v>15.5228863295458</v>
+      </c>
+      <c r="CV75" t="n">
+        <v>42.26298616993361</v>
+      </c>
+      <c r="CW75" t="n">
+        <v>0.5841836734693877</v>
+      </c>
+      <c r="CX75" t="n">
+        <v>5</v>
+      </c>
+      <c r="CY75" t="n">
+        <v>6</v>
+      </c>
+      <c r="CZ75" t="n">
+        <v>12.49991735509869</v>
+      </c>
+      <c r="DA75" t="n">
+        <v>32.65370519267174</v>
+      </c>
+      <c r="DB75" t="n">
+        <v>0.5815147625160462</v>
+      </c>
+      <c r="DC75" t="n">
+        <v>7</v>
+      </c>
+      <c r="DD75" t="n">
+        <v>10</v>
+      </c>
+      <c r="DE75" t="n">
+        <v>12.73227107171374</v>
+      </c>
+      <c r="DF75" t="n">
+        <v>35.64123423584923</v>
+      </c>
+      <c r="DG75" t="n">
+        <v>0.5803452855245684</v>
+      </c>
+      <c r="DH75" t="n">
+        <v>7</v>
+      </c>
+      <c r="DI75" t="n">
+        <v>11</v>
+      </c>
+      <c r="DJ75" t="n">
+        <v>12.37742369331965</v>
+      </c>
+      <c r="DK75" t="n">
+        <v>36.08871100120362</v>
+      </c>
+      <c r="DL75" t="n">
+        <v>0.5794392523364486</v>
+      </c>
+      <c r="DM75" t="n">
+        <v>3</v>
+      </c>
+      <c r="DN75" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO75" t="n">
+        <v>3.897114317029974</v>
+      </c>
+      <c r="DP75" t="n">
+        <v>27.94973166239705</v>
+      </c>
+      <c r="DQ75" t="n">
+        <v>0.5774240231548481</v>
+      </c>
+      <c r="DR75" t="n">
+        <v>6</v>
+      </c>
+      <c r="DS75" t="n">
+        <v>9</v>
+      </c>
+      <c r="DT75" t="n">
+        <v>13.41243204394092</v>
+      </c>
+      <c r="DU75" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="DV75" t="n">
+        <v>0.5765171503957783</v>
+      </c>
+      <c r="DW75" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX75" t="n">
+        <v>2</v>
+      </c>
+      <c r="DY75" t="n">
+        <v>14.57928515241936</v>
+      </c>
+      <c r="DZ75" t="n">
+        <v>40.74991479200362</v>
+      </c>
+      <c r="EA75" t="n">
+        <v>0.5762273901808785</v>
+      </c>
+      <c r="EB75" t="n">
+        <v>5</v>
+      </c>
+      <c r="EC75" t="n">
+        <v>7</v>
+      </c>
+      <c r="ED75" t="n">
+        <v>13.23584149194905</v>
+      </c>
+      <c r="EE75" t="n">
+        <v>31.26355261678081</v>
+      </c>
+      <c r="EF75" t="n">
+        <v>0.5738341968911918</v>
+      </c>
+      <c r="EG75" t="n">
+        <v>7</v>
+      </c>
+      <c r="EH75" t="n">
+        <v>9</v>
+      </c>
+      <c r="EI75" t="n">
+        <v>13.12306533360251</v>
+      </c>
+      <c r="EJ75" t="n">
+        <v>36.28855708071072</v>
+      </c>
+      <c r="EK75" t="n">
+        <v>0.5716162943495401</v>
+      </c>
+      <c r="EL75" t="n">
+        <v>4</v>
+      </c>
+      <c r="EM75" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN75" t="n">
+        <v>6.013318551349164</v>
+      </c>
+      <c r="EO75" t="n">
+        <v>33.23492139301671</v>
+      </c>
+      <c r="EP75" t="n">
+        <v>0.5633423180592992</v>
+      </c>
+      <c r="EQ75" t="n">
+        <v>2</v>
+      </c>
+      <c r="ER75" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES75" t="n">
+        <v>3.741657386773941</v>
+      </c>
+      <c r="ET75" t="n">
+        <v>27.32926799035951</v>
+      </c>
+      <c r="EU75" t="n">
+        <v>0.5611510791366906</v>
+      </c>
+      <c r="EV75" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW75" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX75" t="n">
+        <v>16.7388022271607</v>
+      </c>
+      <c r="EY75" t="n">
+        <v>40.94126891047711</v>
+      </c>
+      <c r="EZ75" t="n">
+        <v>0.5508021390374331</v>
+      </c>
+      <c r="FA75" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB75" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC75" t="n">
+        <v>19.3275853524323</v>
+      </c>
+      <c r="FD75" t="n">
+        <v>36.12016980395672</v>
+      </c>
+      <c r="FE75" t="n">
+        <v>0.5203619909502263</v>
+      </c>
+      <c r="FF75" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG75" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH75" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="FI75" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="FJ75" t="n">
+        <v>0.5125925925925926</v>
+      </c>
+      <c r="FK75" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL75" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="FN75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="FO75" t="n">
+        <v>0.446969696969697</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7.759822404539939</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9.924716620639604</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.7740112994350282</v>
+      </c>
+      <c r="G76" t="n">
+        <v>7</v>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7.646153792598551</v>
+      </c>
+      <c r="J76" t="n">
+        <v>10.3816447017225</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.7611111111111111</v>
+      </c>
+      <c r="L76" t="n">
+        <v>7</v>
+      </c>
+      <c r="M76" t="n">
+        <v>8</v>
+      </c>
+      <c r="N76" t="n">
+        <v>7.953755227703592</v>
+      </c>
+      <c r="O76" t="n">
+        <v>9.780706632049764</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>7</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7</v>
+      </c>
+      <c r="S76" t="n">
+        <v>8.228869042236953</v>
+      </c>
+      <c r="T76" t="n">
+        <v>9.862317482338975</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="V76" t="n">
+        <v>7</v>
+      </c>
+      <c r="W76" t="n">
+        <v>23</v>
+      </c>
+      <c r="X76" t="n">
+        <v>7.849982307127974</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>9.810481922696537</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.7352941176470589</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>7.863127575433241</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>9.781683482300945</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0.7352941176470589</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>7.328478506635755</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>8.843449396147536</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>0.7345679012345679</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>7.438468448171461</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>8.645944884682084</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.7329192546583851</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>8.495735094322292</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>10.22064276166321</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.732620320855615</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>7.724273369901567</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>8.801927226607496</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0.73125</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>10.1447851956888</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>12.51221625274897</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0.7283950617283951</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>7.753063910480811</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>9.018176090540702</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0.7267080745341615</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>17</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>7.591453437205303</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>8.628345560270406</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>0.7267080745341615</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>20</v>
+      </c>
+      <c r="BQ76" t="n">
+        <v>7.347816002051221</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>9.376907805881425</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>0.7257142857142858</v>
+      </c>
+      <c r="BT76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV76" t="n">
+        <v>11.04536101718726</v>
+      </c>
+      <c r="BW76" t="n">
+        <v>13.45511055324333</v>
+      </c>
+      <c r="BX76" t="n">
+        <v>0.7228260869565217</v>
+      </c>
+      <c r="BY76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ76" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA76" t="n">
+        <v>10.08535005412731</v>
+      </c>
+      <c r="CB76" t="n">
+        <v>11.69859576432757</v>
+      </c>
+      <c r="CC76" t="n">
+        <v>0.7204968944099379</v>
+      </c>
+      <c r="CD76" t="n">
+        <v>16</v>
+      </c>
+      <c r="CE76" t="n">
+        <v>23</v>
+      </c>
+      <c r="CF76" t="n">
+        <v>7.59796851633905</v>
+      </c>
+      <c r="CG76" t="n">
+        <v>9.481911219167728</v>
+      </c>
+      <c r="CH76" t="n">
+        <v>0.7182320441988951</v>
+      </c>
+      <c r="CI76" t="n">
+        <v>5</v>
+      </c>
+      <c r="CJ76" t="n">
+        <v>14</v>
+      </c>
+      <c r="CK76" t="n">
+        <v>7.496628974637834</v>
+      </c>
+      <c r="CL76" t="n">
+        <v>9.119095061289915</v>
+      </c>
+      <c r="CM76" t="n">
+        <v>0.7160493827160493</v>
+      </c>
+      <c r="CN76" t="n">
+        <v>12</v>
+      </c>
+      <c r="CO76" t="n">
+        <v>23</v>
+      </c>
+      <c r="CP76" t="n">
+        <v>7.460152649310898</v>
+      </c>
+      <c r="CQ76" t="n">
+        <v>9.331797735677291</v>
+      </c>
+      <c r="CR76" t="n">
+        <v>0.7158469945355191</v>
+      </c>
+      <c r="CS76" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT76" t="n">
+        <v>21</v>
+      </c>
+      <c r="CU76" t="n">
+        <v>7.544836394052409</v>
+      </c>
+      <c r="CV76" t="n">
+        <v>9.795316475340192</v>
+      </c>
+      <c r="CW76" t="n">
+        <v>0.7135135135135136</v>
+      </c>
+      <c r="CX76" t="n">
+        <v>13</v>
+      </c>
+      <c r="CY76" t="n">
+        <v>23</v>
+      </c>
+      <c r="CZ76" t="n">
+        <v>7.414325473178408</v>
+      </c>
+      <c r="DA76" t="n">
+        <v>9.317902256899661</v>
+      </c>
+      <c r="DB76" t="n">
+        <v>0.7103825136612022</v>
+      </c>
+      <c r="DC76" t="n">
+        <v>14</v>
+      </c>
+      <c r="DD76" t="n">
+        <v>23</v>
+      </c>
+      <c r="DE76" t="n">
+        <v>7.44220487761977</v>
+      </c>
+      <c r="DF76" t="n">
+        <v>9.384724077936013</v>
+      </c>
+      <c r="DG76" t="n">
+        <v>0.7103825136612022</v>
+      </c>
+      <c r="DH76" t="n">
+        <v>6</v>
+      </c>
+      <c r="DI76" t="n">
+        <v>5</v>
+      </c>
+      <c r="DJ76" t="n">
+        <v>8.486255294629064</v>
+      </c>
+      <c r="DK76" t="n">
+        <v>10.06425636588949</v>
+      </c>
+      <c r="DL76" t="n">
+        <v>0.7079207920792079</v>
+      </c>
+      <c r="DM76" t="n">
+        <v>15</v>
+      </c>
+      <c r="DN76" t="n">
+        <v>23</v>
+      </c>
+      <c r="DO76" t="n">
+        <v>7.561978445191454</v>
+      </c>
+      <c r="DP76" t="n">
+        <v>9.47002853444557</v>
+      </c>
+      <c r="DQ76" t="n">
+        <v>0.7065217391304348</v>
+      </c>
+      <c r="DR76" t="n">
+        <v>10</v>
+      </c>
+      <c r="DS76" t="n">
+        <v>23</v>
+      </c>
+      <c r="DT76" t="n">
+        <v>7.638648046958808</v>
+      </c>
+      <c r="DU76" t="n">
+        <v>9.564723216654151</v>
+      </c>
+      <c r="DV76" t="n">
+        <v>0.7055837563451777</v>
+      </c>
+      <c r="DW76" t="n">
+        <v>5</v>
+      </c>
+      <c r="DX76" t="n">
+        <v>22</v>
+      </c>
+      <c r="DY76" t="n">
+        <v>7.811742418686896</v>
+      </c>
+      <c r="DZ76" t="n">
+        <v>10.01480385710556</v>
+      </c>
+      <c r="EA76" t="n">
+        <v>0.7052631578947368</v>
+      </c>
+      <c r="EB76" t="n">
+        <v>9</v>
+      </c>
+      <c r="EC76" t="n">
+        <v>23</v>
+      </c>
+      <c r="ED76" t="n">
+        <v>7.746912187284686</v>
+      </c>
+      <c r="EE76" t="n">
+        <v>9.698380986020295</v>
+      </c>
+      <c r="EF76" t="n">
+        <v>0.7040816326530612</v>
+      </c>
+      <c r="EG76" t="n">
+        <v>5</v>
+      </c>
+      <c r="EH76" t="n">
+        <v>13</v>
+      </c>
+      <c r="EI76" t="n">
+        <v>6.928203230275509</v>
+      </c>
+      <c r="EJ76" t="n">
+        <v>9.050612147634743</v>
+      </c>
+      <c r="EK76" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="EL76" t="n">
+        <v>5</v>
+      </c>
+      <c r="EM76" t="n">
+        <v>5</v>
+      </c>
+      <c r="EN76" t="n">
+        <v>8.018104514160438</v>
+      </c>
+      <c r="EO76" t="n">
+        <v>8.328265125462806</v>
+      </c>
+      <c r="EP76" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="EQ76" t="n">
+        <v>7</v>
+      </c>
+      <c r="ER76" t="n">
+        <v>11</v>
+      </c>
+      <c r="ES76" t="n">
+        <v>8.220908303425682</v>
+      </c>
+      <c r="ET76" t="n">
+        <v>10.37342878181356</v>
+      </c>
+      <c r="EU76" t="n">
+        <v>0.702020202020202</v>
+      </c>
+      <c r="EV76" t="n">
+        <v>5</v>
+      </c>
+      <c r="EW76" t="n">
+        <v>23</v>
+      </c>
+      <c r="EX76" t="n">
+        <v>7.972529365878556</v>
+      </c>
+      <c r="EY76" t="n">
+        <v>9.928057540657802</v>
+      </c>
+      <c r="EZ76" t="n">
+        <v>0.7015706806282722</v>
+      </c>
+      <c r="FA76" t="n">
+        <v>5</v>
+      </c>
+      <c r="FB76" t="n">
+        <v>6</v>
+      </c>
+      <c r="FC76" t="n">
+        <v>7.726737949409374</v>
+      </c>
+      <c r="FD76" t="n">
+        <v>7.957531906916037</v>
+      </c>
+      <c r="FE76" t="n">
+        <v>0.6975308641975309</v>
+      </c>
+      <c r="FF76" t="n">
+        <v>5</v>
+      </c>
+      <c r="FG76" t="n">
+        <v>8</v>
+      </c>
+      <c r="FH76" t="n">
+        <v>7.169957044757565</v>
+      </c>
+      <c r="FI76" t="n">
+        <v>8.301992346604333</v>
+      </c>
+      <c r="FJ76" t="n">
+        <v>0.6975308641975309</v>
+      </c>
+      <c r="FK76" t="n">
+        <v>5</v>
+      </c>
+      <c r="FL76" t="n">
+        <v>9</v>
+      </c>
+      <c r="FM76" t="n">
+        <v>7.093040567330481</v>
+      </c>
+      <c r="FN76" t="n">
+        <v>8.998866141727785</v>
+      </c>
+      <c r="FO76" t="n">
+        <v>0.6975308641975309</v>
+      </c>
+      <c r="FP76" t="n">
+        <v>5</v>
+      </c>
+      <c r="FQ76" t="n">
+        <v>10</v>
+      </c>
+      <c r="FR76" t="n">
+        <v>7.361763073853679</v>
+      </c>
+      <c r="FS76" t="n">
+        <v>9.657236779856969</v>
+      </c>
+      <c r="FT76" t="n">
+        <v>0.6975308641975309</v>
+      </c>
+      <c r="FU76" t="n">
+        <v>5</v>
+      </c>
+      <c r="FV76" t="n">
+        <v>12</v>
+      </c>
+      <c r="FW76" t="n">
+        <v>7.128576926465744</v>
+      </c>
+      <c r="FX76" t="n">
+        <v>9.168171209232478</v>
+      </c>
+      <c r="FY76" t="n">
+        <v>0.6975308641975309</v>
+      </c>
+      <c r="FZ76" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA76" t="n">
+        <v>2</v>
+      </c>
+      <c r="GB76" t="n">
+        <v>14.1970262926979</v>
+      </c>
+      <c r="GC76" t="n">
+        <v>14.07914138796192</v>
+      </c>
+      <c r="GD76" t="n">
+        <v>0.6971428571428572</v>
+      </c>
+      <c r="GE76" t="n">
+        <v>8</v>
+      </c>
+      <c r="GF76" t="n">
+        <v>23</v>
+      </c>
+      <c r="GG76" t="n">
+        <v>7.811648496780489</v>
+      </c>
+      <c r="GH76" t="n">
+        <v>9.768922245131527</v>
+      </c>
+      <c r="GI76" t="n">
+        <v>0.6951871657754011</v>
+      </c>
+      <c r="GJ76" t="n">
+        <v>5</v>
+      </c>
+      <c r="GK76" t="n">
+        <v>7</v>
+      </c>
+      <c r="GL76" t="n">
+        <v>7.399324293474371</v>
+      </c>
+      <c r="GM76" t="n">
+        <v>7.983924821512009</v>
+      </c>
+      <c r="GN76" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="GO76" t="n">
+        <v>5</v>
+      </c>
+      <c r="GP76" t="n">
+        <v>11</v>
+      </c>
+      <c r="GQ76" t="n">
+        <v>7.322909257938405</v>
+      </c>
+      <c r="GR76" t="n">
+        <v>9.437086083638318</v>
+      </c>
+      <c r="GS76" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="GT76" t="n">
+        <v>11</v>
+      </c>
+      <c r="GU76" t="n">
+        <v>23</v>
+      </c>
+      <c r="GV76" t="n">
+        <v>7.525561975359893</v>
+      </c>
+      <c r="GW76" t="n">
+        <v>9.428890668512087</v>
+      </c>
+      <c r="GX76" t="n">
+        <v>0.6894736842105263</v>
+      </c>
+      <c r="GY76" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ76" t="n">
+        <v>5</v>
+      </c>
+      <c r="HA76" t="n">
+        <v>8.726969691708572</v>
+      </c>
+      <c r="HB76" t="n">
+        <v>10.19264440662971</v>
+      </c>
+      <c r="HC76" t="n">
+        <v>0.6886792452830188</v>
+      </c>
+      <c r="HD76" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE76" t="n">
+        <v>5</v>
+      </c>
+      <c r="HF76" t="n">
+        <v>8.701851654804409</v>
+      </c>
+      <c r="HG76" t="n">
+        <v>10.63373823680501</v>
+      </c>
+      <c r="HH76" t="n">
+        <v>0.680952380952381</v>
+      </c>
+      <c r="HI76" t="n">
+        <v>7</v>
+      </c>
+      <c r="HJ76" t="n">
+        <v>12</v>
+      </c>
+      <c r="HK76" t="n">
+        <v>8.338078058304035</v>
+      </c>
+      <c r="HL76" t="n">
+        <v>10.11813872715427</v>
+      </c>
+      <c r="HM76" t="n">
+        <v>0.6796116504854369</v>
+      </c>
+      <c r="HN76" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO76" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="HQ76" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR76" t="n">
+        <v>0.6708074534161491</v>
+      </c>
+      <c r="HS76" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT76" t="n">
+        <v>14</v>
+      </c>
+      <c r="HU76" t="n">
+        <v>8.00538367603037</v>
+      </c>
+      <c r="HV76" t="n">
+        <v>10.11520935608652</v>
+      </c>
+      <c r="HW76" t="n">
+        <v>0.6682242990654206</v>
+      </c>
+      <c r="HX76" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY76" t="n">
+        <v>13</v>
+      </c>
+      <c r="HZ76" t="n">
+        <v>8.172361959678486</v>
+      </c>
+      <c r="IA76" t="n">
+        <v>9.904544411531507</v>
+      </c>
+      <c r="IB76" t="n">
+        <v>0.6635071090047393</v>
+      </c>
+      <c r="IC76" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID76" t="n">
+        <v>5</v>
+      </c>
+      <c r="IE76" t="n">
+        <v>9.146273612114079</v>
+      </c>
+      <c r="IF76" t="n">
+        <v>10.68863478561443</v>
+      </c>
+      <c r="IG76" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="IH76" t="n">
+        <v>3</v>
+      </c>
+      <c r="II76" t="n">
+        <v>5</v>
+      </c>
+      <c r="IJ76" t="n">
+        <v>9.640409742329421</v>
+      </c>
+      <c r="IK76" t="n">
+        <v>11.2583302491977</v>
+      </c>
+      <c r="IL76" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="IM76" t="n">
+        <v>7</v>
+      </c>
+      <c r="IN76" t="n">
+        <v>15</v>
+      </c>
+      <c r="IO76" t="n">
+        <v>8.047508725948353</v>
+      </c>
+      <c r="IP76" t="n">
+        <v>10.52152457293348</v>
+      </c>
+      <c r="IQ76" t="n">
+        <v>0.6529680365296804</v>
+      </c>
+      <c r="IR76" t="n">
+        <v>7</v>
+      </c>
+      <c r="IS76" t="n">
+        <v>16</v>
+      </c>
+      <c r="IT76" t="n">
+        <v>8.350543036121042</v>
+      </c>
+      <c r="IU76" t="n">
+        <v>10.70925257603163</v>
+      </c>
+      <c r="IV76" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="IW76" t="n">
+        <v>7</v>
+      </c>
+      <c r="IX76" t="n">
+        <v>17</v>
+      </c>
+      <c r="IY76" t="n">
+        <v>8.84580487513086</v>
+      </c>
+      <c r="IZ76" t="n">
+        <v>11.15601170769474</v>
+      </c>
+      <c r="JA76" t="n">
+        <v>0.6359649122807017</v>
+      </c>
+      <c r="JB76" t="n">
+        <v>7</v>
+      </c>
+      <c r="JC76" t="n">
+        <v>18</v>
+      </c>
+      <c r="JD76" t="n">
+        <v>8.81507799171397</v>
+      </c>
+      <c r="JE76" t="n">
+        <v>11.56588085707267</v>
+      </c>
+      <c r="JF76" t="n">
+        <v>0.614406779661017</v>
+      </c>
+      <c r="JG76" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH76" t="n">
+        <v>4</v>
+      </c>
+      <c r="JI76" t="n">
+        <v>7.983006642971581</v>
+      </c>
+      <c r="JJ76" t="n">
+        <v>8.706461344070993</v>
+      </c>
+      <c r="JK76" t="n">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="JL76" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM76" t="n">
+        <v>19</v>
+      </c>
+      <c r="JN76" t="n">
+        <v>9.233332977306867</v>
+      </c>
+      <c r="JO76" t="n">
+        <v>11.63548947765479</v>
+      </c>
+      <c r="JP76" t="n">
+        <v>0.5910931174089069</v>
+      </c>
+      <c r="JQ76" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR76" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS76" t="n">
+        <v>6.708203932499369</v>
+      </c>
+      <c r="JT76" t="n">
+        <v>8.659351881058997</v>
+      </c>
+      <c r="JU76" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="JV76" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW76" t="n">
+        <v>2</v>
+      </c>
+      <c r="JX76" t="n">
+        <v>12.34908903522847</v>
+      </c>
+      <c r="JY76" t="n">
+        <v>12.33642979147533</v>
+      </c>
+      <c r="JZ76" t="n">
+        <v>0.5551330798479087</v>
+      </c>
+      <c r="KA76" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB76" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC76" t="n">
+        <v>7.203394261658103</v>
+      </c>
+      <c r="KD76" t="n">
+        <v>8.294911425419535</v>
+      </c>
+      <c r="KE76" t="n">
+        <v>0.553030303030303</v>
+      </c>
+      <c r="KF76" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG76" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH76" t="n">
+        <v>6.673126122358093</v>
+      </c>
+      <c r="KI76" t="n">
+        <v>7.977007776179267</v>
+      </c>
+      <c r="KJ76" t="n">
+        <v>0.5492424242424242</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>16</v>
+      </c>
+      <c r="E77" t="n">
+        <v>30</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.8120362737015664</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>64.99914529352588</v>
+      </c>
+      <c r="E78" t="n">
+        <v>49.0260701622673</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>66.55548552194044</v>
+      </c>
+      <c r="J78" t="n">
+        <v>51.16360313459447</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.7334326135517498</v>
+      </c>
+      <c r="L78" t="n">
+        <v>6</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="n">
+        <v>64.03432721383426</v>
+      </c>
+      <c r="O78" t="n">
+        <v>52.47033259346786</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.7332843497428362</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>6</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>66.38900511379877</v>
+      </c>
+      <c r="T78" t="n">
+        <v>54.68546424782366</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.7272064186725018</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3</v>
+      </c>
+      <c r="W78" t="n">
+        <v>4</v>
+      </c>
+      <c r="X78" t="n">
+        <v>65.3736513108629</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>47.41436964654905</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0.722707423580786</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>77.29610274781</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>58.31970078798416</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0.7183823529411765</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>61.37996415769562</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>49.85666956386076</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>0.7155172413793104</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>75.6201674305355</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>62.82228019491882</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.7153075822603719</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>75.36029162442917</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>60.20762972984363</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.7139800285306704</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>72.20830977110599</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>63.1461796152388</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0.7138790035587189</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>71.51671133378548</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>52.35647046927438</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0.702683615819209</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>70.11280593126733</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>47.93977703559146</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>0.7013986013986014</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>69.76751516887717</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>59.05448415459602</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>0.697138869504536</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ78" t="n">
+        <v>73.32242163753799</v>
+      </c>
+      <c r="BR78" t="n">
+        <v>60.70025296536392</v>
+      </c>
+      <c r="BS78" t="n">
+        <v>0.6915113871635611</v>
+      </c>
+      <c r="BT78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV78" t="n">
+        <v>68.74025183414898</v>
+      </c>
+      <c r="BW78" t="n">
+        <v>48.75591132251441</v>
+      </c>
+      <c r="BX78" t="n">
+        <v>0.6807639836289222</v>
+      </c>
+      <c r="BY78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA78" t="n">
+        <v>68.16039905986466</v>
+      </c>
+      <c r="CB78" t="n">
+        <v>51.46260778468188</v>
+      </c>
+      <c r="CC78" t="n">
+        <v>0.4237743451981195</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>25.96150997149434</v>
+      </c>
+      <c r="E79" t="n">
+        <v>41.6538113502234</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.8670862643465383</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>19</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.7918968692449355</v>
+      </c>
+      <c r="L79" t="n">
+        <v>3</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>27.01272848121789</v>
+      </c>
+      <c r="O79" t="n">
+        <v>34.78056210011563</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.7438954047298596</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>30.86529874578677</v>
+      </c>
+      <c r="T79" t="n">
+        <v>39.9082280572148</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.2850792423656745</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>19.77091016844922</v>
+      </c>
+      <c r="E80" t="n">
+        <v>39.21734310225516</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.8349470636141526</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>48</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.7169669669669669</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.8413087934560327</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>16.4696690920006</v>
+      </c>
+      <c r="E82" t="n">
+        <v>42.29361653961505</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.8756894357233772</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" t="n">
+        <v>15.53665842779717</v>
+      </c>
+      <c r="J82" t="n">
+        <v>44.2903223409045</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.8751589656634167</v>
+      </c>
+      <c r="L82" t="n">
+        <v>5</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>14.91829600040017</v>
+      </c>
+      <c r="O82" t="n">
+        <v>42.74504519694521</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.8735729386892177</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>13.54400236266961</v>
+      </c>
+      <c r="T82" t="n">
+        <v>40.53936358651922</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.8734230445752733</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1</v>
+      </c>
+      <c r="X82" t="n">
+        <v>14.20167243672378</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>37.1685350800916</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0.8653886665262271</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>14.70941412515554</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>47.93610145271732</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>0.863204559848005</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>14.65979952871874</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>37.95858488756748</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>0.8423866552609067</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>15.62366043640538</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>40.80062938270305</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0.8302170642596175</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>6.236095644623235</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>13.71941041817112</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.7943471841383675</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>14.55624599684483</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>39.10422606148559</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0.4860540540540541</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>15.24499918005901</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>40.14087692116355</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0.4502708559046587</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>7</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8.511430223202471</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6.190394789859608</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+      <c r="I83" t="n">
+        <v>8.940777371123833</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6.152997237119484</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.8209876543209876</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="n">
+        <v>8.452218643646177</v>
+      </c>
+      <c r="O83" t="n">
+        <v>6.48074069840786</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>7.44983221287567</v>
+      </c>
+      <c r="T83" t="n">
+        <v>6.098155458825234</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.8132530120481928</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2</v>
+      </c>
+      <c r="W83" t="n">
+        <v>4</v>
+      </c>
+      <c r="X83" t="n">
+        <v>9.616247824501105</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>5.927806414592913</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0.8121212121212121</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>9.544738907708609</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>6.13454587245254</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0.8109756097560976</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>12.8530152104477</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>6.720119046564577</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0.8109756097560976</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>8.602325267042627</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>4.784233364802441</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0.8035714285714286</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>0.7941176470588235</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>61.99462342278832</v>
+      </c>
+      <c r="E84" t="n">
+        <v>159.5075755776718</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.9403219007058468</v>
+      </c>
+      <c r="G84" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>57.90985253312396</v>
+      </c>
+      <c r="J84" t="n">
+        <v>149.9892513155662</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9351112841476867</v>
+      </c>
+      <c r="L84" t="n">
+        <v>4</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>66.19184239768524</v>
+      </c>
+      <c r="O84" t="n">
+        <v>174.112607240257</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.9341674500016207</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>7</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>38.51602750803878</v>
+      </c>
+      <c r="T84" t="n">
+        <v>134.0006996250393</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.9340838971583221</v>
+      </c>
+      <c r="V84" t="n">
+        <v>5</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>35.17930262716038</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>128.5540310098788</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.9313702157121531</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>38.47388724836626</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>138.8328491388115</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0.9281891602607765</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>49.76738791023981</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>172.7095588436735</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>0.9244380834661549</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>36.33112463555113</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>127.8912539601758</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0.923563068354871</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>33.67915845572324</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>125.543878011325</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>0.9208394698085419</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>45.84840661232284</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>168.8966441019149</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0.9202765826008735</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>54.29491228466991</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>141.7116350198529</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0.914809322263236</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>49.16553671017942</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>145.0651912838577</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>0.9117286827586955</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>35.02584759859496</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>124.3107396808498</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>0.9101405348829603</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ84" t="n">
+        <v>48.15790271336575</v>
+      </c>
+      <c r="BR84" t="n">
+        <v>166.6995800834543</v>
+      </c>
+      <c r="BS84" t="n">
+        <v>0.9080463511490138</v>
+      </c>
+      <c r="BT84" t="n">
+        <v>13</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV84" t="n">
+        <v>48.46711487689149</v>
+      </c>
+      <c r="BW84" t="n">
+        <v>173.0311402904231</v>
+      </c>
+      <c r="BX84" t="n">
+        <v>0.901225721699291</v>
+      </c>
+      <c r="BY84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ84" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA84" t="n">
+        <v>50.44545372630613</v>
+      </c>
+      <c r="CB84" t="n">
+        <v>138.7792706077288</v>
+      </c>
+      <c r="CC84" t="n">
+        <v>0.9009805514924969</v>
+      </c>
+      <c r="CD84" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE84" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF84" t="n">
+        <v>42.19298441547241</v>
+      </c>
+      <c r="CG84" t="n">
+        <v>161.4239835939469</v>
+      </c>
+      <c r="CH84" t="n">
+        <v>0.8987387074734022</v>
+      </c>
+      <c r="CI84" t="n">
+        <v>12</v>
+      </c>
+      <c r="CJ84" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK84" t="n">
+        <v>48.33793761651144</v>
+      </c>
+      <c r="CL84" t="n">
+        <v>147.6659431596561</v>
+      </c>
+      <c r="CM84" t="n">
+        <v>0.8923818414710927</v>
+      </c>
+      <c r="CN84" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO84" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP84" t="n">
+        <v>62.38990302925627</v>
+      </c>
+      <c r="CQ84" t="n">
+        <v>147.1359915180511</v>
+      </c>
+      <c r="CR84" t="n">
+        <v>0.8914341548148952</v>
+      </c>
+      <c r="CS84" t="n">
+        <v>9</v>
+      </c>
+      <c r="CT84" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU84" t="n">
+        <v>48.56789062745056</v>
+      </c>
+      <c r="CV84" t="n">
+        <v>126.7705013005786</v>
+      </c>
+      <c r="CW84" t="n">
+        <v>0.8908938814531548</v>
+      </c>
+      <c r="CX84" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY84" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ84" t="n">
+        <v>51.19268852116181</v>
+      </c>
+      <c r="DA84" t="n">
+        <v>133.6153498981126</v>
+      </c>
+      <c r="DB84" t="n">
+        <v>0.8898146942672395</v>
+      </c>
+      <c r="DC84" t="n">
+        <v>17</v>
+      </c>
+      <c r="DD84" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE84" t="n">
+        <v>46.33240073668416</v>
+      </c>
+      <c r="DF84" t="n">
+        <v>158.9842080052661</v>
+      </c>
+      <c r="DG84" t="n">
+        <v>0.8827139706920712</v>
+      </c>
+      <c r="DH84" t="n">
+        <v>16</v>
+      </c>
+      <c r="DI84" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ84" t="n">
+        <v>47.0618381387355</v>
+      </c>
+      <c r="DK84" t="n">
+        <v>163.1491134453175</v>
+      </c>
+      <c r="DL84" t="n">
+        <v>0.8706270913910739</v>
+      </c>
+      <c r="DM84" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN84" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO84" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="DP84" t="n">
+        <v>116</v>
+      </c>
+      <c r="DQ84" t="n">
+        <v>0.8676371610325886</v>
+      </c>
+      <c r="DR84" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS84" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT84" t="n">
+        <v>52.49973544906891</v>
+      </c>
+      <c r="DU84" t="n">
+        <v>100.9334214002258</v>
+      </c>
+      <c r="DV84" t="n">
+        <v>0.8339813332462073</v>
+      </c>
+      <c r="DW84" t="n">
+        <v>13</v>
+      </c>
+      <c r="DX84" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY84" t="n">
+        <v>48.72622392469155</v>
+      </c>
+      <c r="DZ84" t="n">
+        <v>148.7269790109188</v>
+      </c>
+      <c r="EA84" t="n">
+        <v>0.7869975739295784</v>
+      </c>
+      <c r="EB84" t="n">
+        <v>14</v>
+      </c>
+      <c r="EC84" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED84" t="n">
+        <v>49.57481439422867</v>
+      </c>
+      <c r="EE84" t="n">
+        <v>172.1392717798263</v>
+      </c>
+      <c r="EF84" t="n">
+        <v>0.7632017969491118</v>
+      </c>
+      <c r="EG84" t="n">
+        <v>15</v>
+      </c>
+      <c r="EH84" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI84" t="n">
+        <v>48.66912361805994</v>
+      </c>
+      <c r="EJ84" t="n">
+        <v>148.2325031833437</v>
+      </c>
+      <c r="EK84" t="n">
+        <v>0.6904704516072485</v>
+      </c>
+      <c r="EL84" t="n">
+        <v>14</v>
+      </c>
+      <c r="EM84" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN84" t="n">
+        <v>50.08526063956674</v>
+      </c>
+      <c r="EO84" t="n">
+        <v>150.4617190148009</v>
+      </c>
+      <c r="EP84" t="n">
+        <v>0.1407572828478101</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.9180704441041347</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>14</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>89.03275254045978</v>
+      </c>
+      <c r="E86" t="n">
+        <v>185.7973757079055</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.9202777234832712</v>
+      </c>
+      <c r="G86" t="n">
+        <v>13</v>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>89.88325761786786</v>
+      </c>
+      <c r="J86" t="n">
+        <v>188.6045245127133</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9182389937106918</v>
+      </c>
+      <c r="L86" t="n">
+        <v>17</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>83.72141118828578</v>
+      </c>
+      <c r="O86" t="n">
+        <v>170.4466536145402</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.9140274562675418</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>10</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>94.71252410437715</v>
+      </c>
+      <c r="T86" t="n">
+        <v>199.1398838337849</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.9126577554620708</v>
+      </c>
+      <c r="V86" t="n">
+        <v>18</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1</v>
+      </c>
+      <c r="X86" t="n">
+        <v>83.28005683857337</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>165.9268603683254</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0.9108293776483276</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>84.40719397340293</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>170.7105443884411</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0.9097549801472834</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>88.00842569434633</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>176.9889244135897</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>0.9085873046891595</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>82.29949635685334</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>163.9673802167612</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0.9062672803219138</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>91.92135949919329</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>188.4187341459512</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0.9053679991848657</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>87.65983972150531</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>181.1240665952485</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>0.9044071424930766</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>81.81801452003099</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>164.8884168157363</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>0.9037449495806879</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>27</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>78.38637298273058</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>157.7447361584985</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>0.9028506426255115</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>85.56756741750931</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>170.5093472511111</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>0.9013073005093378</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>25</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ86" t="n">
+        <v>78.09527067483118</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>161.2959580853611</v>
+      </c>
+      <c r="BS86" t="n">
+        <v>0.9002726323031059</v>
+      </c>
+      <c r="BT86" t="n">
+        <v>26</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV86" t="n">
+        <v>77.57928817255781</v>
+      </c>
+      <c r="BW86" t="n">
+        <v>158.7679760946651</v>
+      </c>
+      <c r="BX86" t="n">
+        <v>0.8949621952255543</v>
+      </c>
+      <c r="BY86" t="n">
+        <v>14</v>
+      </c>
+      <c r="BZ86" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA86" t="n">
+        <v>85.05720950565501</v>
+      </c>
+      <c r="CB86" t="n">
+        <v>173.8070449921087</v>
+      </c>
+      <c r="CC86" t="n">
+        <v>0.8924509229292492</v>
+      </c>
+      <c r="CD86" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE86" t="n">
+        <v>5</v>
+      </c>
+      <c r="CF86" t="n">
+        <v>96.33551065025242</v>
+      </c>
+      <c r="CG86" t="n">
+        <v>203.3107102391785</v>
+      </c>
+      <c r="CH86" t="n">
+        <v>0.8886534238880662</v>
+      </c>
+      <c r="CI86" t="n">
+        <v>12</v>
+      </c>
+      <c r="CJ86" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK86" t="n">
+        <v>78.76006557256083</v>
+      </c>
+      <c r="CL86" t="n">
+        <v>160.1823295442567</v>
+      </c>
+      <c r="CM86" t="n">
+        <v>0.8850253677035822</v>
+      </c>
+      <c r="CN86" t="n">
+        <v>18</v>
+      </c>
+      <c r="CO86" t="n">
+        <v>5</v>
+      </c>
+      <c r="CP86" t="n">
+        <v>85.15126094237016</v>
+      </c>
+      <c r="CQ86" t="n">
+        <v>170.7904562971621</v>
+      </c>
+      <c r="CR86" t="n">
+        <v>0.8825607928615217</v>
+      </c>
+      <c r="CS86" t="n">
+        <v>20</v>
+      </c>
+      <c r="CT86" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU86" t="n">
+        <v>82.16860714409123</v>
+      </c>
+      <c r="CV86" t="n">
+        <v>165.4712059543895</v>
+      </c>
+      <c r="CW86" t="n">
+        <v>0.881897683298955</v>
+      </c>
+      <c r="CX86" t="n">
+        <v>24</v>
+      </c>
+      <c r="CY86" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ86" t="n">
+        <v>78.28066427924587</v>
+      </c>
+      <c r="DA86" t="n">
+        <v>163.5123775131412</v>
+      </c>
+      <c r="DB86" t="n">
+        <v>0.8817040602833863</v>
+      </c>
+      <c r="DC86" t="n">
+        <v>13</v>
+      </c>
+      <c r="DD86" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE86" t="n">
+        <v>78.78377150823147</v>
+      </c>
+      <c r="DF86" t="n">
+        <v>155.4024564457968</v>
+      </c>
+      <c r="DG86" t="n">
+        <v>0.8809527891109816</v>
+      </c>
+      <c r="DH86" t="n">
+        <v>11</v>
+      </c>
+      <c r="DI86" t="n">
+        <v>5</v>
+      </c>
+      <c r="DJ86" t="n">
+        <v>92.1476184920153</v>
+      </c>
+      <c r="DK86" t="n">
+        <v>192.8496418845521</v>
+      </c>
+      <c r="DL86" t="n">
+        <v>0.877716305908948</v>
+      </c>
+      <c r="DM86" t="n">
+        <v>3</v>
+      </c>
+      <c r="DN86" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO86" t="n">
+        <v>60.4870853984551</v>
+      </c>
+      <c r="DP86" t="n">
+        <v>161.0690845569068</v>
+      </c>
+      <c r="DQ86" t="n">
+        <v>0.8727255674357531</v>
+      </c>
+      <c r="DR86" t="n">
+        <v>24</v>
+      </c>
+      <c r="DS86" t="n">
+        <v>5</v>
+      </c>
+      <c r="DT86" t="n">
+        <v>81.9163025185557</v>
+      </c>
+      <c r="DU86" t="n">
+        <v>168.1078514012205</v>
+      </c>
+      <c r="DV86" t="n">
+        <v>0.8612285967664915</v>
+      </c>
+      <c r="DW86" t="n">
+        <v>23</v>
+      </c>
+      <c r="DX86" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY86" t="n">
+        <v>78.95145088737902</v>
+      </c>
+      <c r="DZ86" t="n">
+        <v>164.8620635561741</v>
+      </c>
+      <c r="EA86" t="n">
+        <v>0.8485576104356118</v>
+      </c>
+      <c r="EB86" t="n">
+        <v>9</v>
+      </c>
+      <c r="EC86" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED86" t="n">
+        <v>66.64390444744366</v>
+      </c>
+      <c r="EE86" t="n">
+        <v>137.8121910427376</v>
+      </c>
+      <c r="EF86" t="n">
+        <v>0.8471651672769998</v>
+      </c>
+      <c r="EG86" t="n">
+        <v>17</v>
+      </c>
+      <c r="EH86" t="n">
+        <v>5</v>
+      </c>
+      <c r="EI86" t="n">
+        <v>86.00808389836253</v>
+      </c>
+      <c r="EJ86" t="n">
+        <v>173.137342177239</v>
+      </c>
+      <c r="EK86" t="n">
+        <v>0.847013559639431</v>
+      </c>
+      <c r="EL86" t="n">
+        <v>20</v>
+      </c>
+      <c r="EM86" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN86" t="n">
+        <v>79.94598516634645</v>
+      </c>
+      <c r="EO86" t="n">
+        <v>162.493216324479</v>
+      </c>
+      <c r="EP86" t="n">
+        <v>0.8467737131868038</v>
+      </c>
+      <c r="EQ86" t="n">
+        <v>8</v>
+      </c>
+      <c r="ER86" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES86" t="n">
+        <v>69.87131027825369</v>
+      </c>
+      <c r="ET86" t="n">
+        <v>135.5049085712897</v>
+      </c>
+      <c r="EU86" t="n">
+        <v>0.8405883913367163</v>
+      </c>
+      <c r="EV86" t="n">
+        <v>23</v>
+      </c>
+      <c r="EW86" t="n">
+        <v>5</v>
+      </c>
+      <c r="EX86" t="n">
+        <v>81.75429839538988</v>
+      </c>
+      <c r="EY86" t="n">
+        <v>169.7101520660615</v>
+      </c>
+      <c r="EZ86" t="n">
+        <v>0.8402478838662382</v>
+      </c>
+      <c r="FA86" t="n">
+        <v>11</v>
+      </c>
+      <c r="FB86" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC86" t="n">
+        <v>79.45998294040145</v>
+      </c>
+      <c r="FD86" t="n">
+        <v>162.3029574591911</v>
+      </c>
+      <c r="FE86" t="n">
+        <v>0.8322468751868908</v>
+      </c>
+      <c r="FF86" t="n">
+        <v>22</v>
+      </c>
+      <c r="FG86" t="n">
+        <v>5</v>
+      </c>
+      <c r="FH86" t="n">
+        <v>80.76324864665605</v>
+      </c>
+      <c r="FI86" t="n">
+        <v>163.7823591834548</v>
+      </c>
+      <c r="FJ86" t="n">
+        <v>0.8314731286397626</v>
+      </c>
+      <c r="FK86" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL86" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM86" t="n">
+        <v>67.34983296193094</v>
+      </c>
+      <c r="FN86" t="n">
+        <v>140.670616058302</v>
+      </c>
+      <c r="FO86" t="n">
+        <v>0.8270611747171601</v>
+      </c>
+      <c r="FP86" t="n">
+        <v>21</v>
+      </c>
+      <c r="FQ86" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR86" t="n">
+        <v>78.57017708566481</v>
+      </c>
+      <c r="FS86" t="n">
+        <v>160.4335036421916</v>
+      </c>
+      <c r="FT86" t="n">
+        <v>0.8172354454534613</v>
+      </c>
+      <c r="FU86" t="n">
+        <v>4</v>
+      </c>
+      <c r="FV86" t="n">
+        <v>5</v>
+      </c>
+      <c r="FW86" t="n">
+        <v>87.24168218868267</v>
+      </c>
+      <c r="FX86" t="n">
+        <v>182.4207590526181</v>
+      </c>
+      <c r="FY86" t="n">
+        <v>0.811619597333883</v>
+      </c>
+      <c r="FZ86" t="n">
+        <v>22</v>
+      </c>
+      <c r="GA86" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB86" t="n">
+        <v>80.46220449134367</v>
+      </c>
+      <c r="GC86" t="n">
+        <v>167.3254415880816</v>
+      </c>
+      <c r="GD86" t="n">
+        <v>0.809085328422345</v>
+      </c>
+      <c r="GE86" t="n">
+        <v>10</v>
+      </c>
+      <c r="GF86" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG86" t="n">
+        <v>80.63836217672984</v>
+      </c>
+      <c r="GH86" t="n">
+        <v>167.9753523832127</v>
+      </c>
+      <c r="GI86" t="n">
+        <v>0.8042084596013488</v>
+      </c>
+      <c r="GJ86" t="n">
+        <v>8</v>
+      </c>
+      <c r="GK86" t="n">
+        <v>5</v>
+      </c>
+      <c r="GL86" t="n">
+        <v>96.03044389070662</v>
+      </c>
+      <c r="GM86" t="n">
+        <v>207.4533668280272</v>
+      </c>
+      <c r="GN86" t="n">
+        <v>0.797072181463398</v>
+      </c>
+      <c r="GO86" t="n">
+        <v>19</v>
+      </c>
+      <c r="GP86" t="n">
+        <v>5</v>
+      </c>
+      <c r="GQ86" t="n">
+        <v>83.842941795293</v>
+      </c>
+      <c r="GR86" t="n">
+        <v>167.674950093593</v>
+      </c>
+      <c r="GS86" t="n">
+        <v>0.788835946305974</v>
+      </c>
+      <c r="GT86" t="n">
+        <v>7</v>
+      </c>
+      <c r="GU86" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV86" t="n">
+        <v>99.2264525662834</v>
+      </c>
+      <c r="GW86" t="n">
+        <v>210.0242545517065</v>
+      </c>
+      <c r="GX86" t="n">
+        <v>0.7730626363140676</v>
+      </c>
+      <c r="GY86" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ86" t="n">
+        <v>5</v>
+      </c>
+      <c r="HA86" t="n">
+        <v>90.65611183061459</v>
+      </c>
+      <c r="HB86" t="n">
+        <v>153.6328780713614</v>
+      </c>
+      <c r="HC86" t="n">
+        <v>0.7312647276354942</v>
+      </c>
+      <c r="HD86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE86" t="n">
+        <v>5</v>
+      </c>
+      <c r="HF86" t="n">
+        <v>93.59469505345247</v>
+      </c>
+      <c r="HG86" t="n">
+        <v>201.5106994267825</v>
+      </c>
+      <c r="HH86" t="n">
+        <v>0.713639086164114</v>
+      </c>
+      <c r="HI86" t="n">
+        <v>5</v>
+      </c>
+      <c r="HJ86" t="n">
+        <v>5</v>
+      </c>
+      <c r="HK86" t="n">
+        <v>94.30291617972374</v>
+      </c>
+      <c r="HL86" t="n">
+        <v>203.0992122092058</v>
+      </c>
+      <c r="HM86" t="n">
+        <v>0.6976204940405397</v>
+      </c>
+      <c r="HN86" t="n">
+        <v>4</v>
+      </c>
+      <c r="HO86" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP86" t="n">
+        <v>54.24168138986844</v>
+      </c>
+      <c r="HQ86" t="n">
+        <v>146.7986375958578</v>
+      </c>
+      <c r="HR86" t="n">
+        <v>0.6833307349858823</v>
+      </c>
+      <c r="HS86" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT86" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU86" t="n">
+        <v>27</v>
+      </c>
+      <c r="HV86" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="HW86" t="n">
+        <v>0.6481170728383179</v>
+      </c>
+      <c r="HX86" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY86" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ86" t="n">
+        <v>50.66557016357361</v>
+      </c>
+      <c r="IA86" t="n">
+        <v>134.2453185610416</v>
+      </c>
+      <c r="IB86" t="n">
+        <v>0.5990303808227019</v>
+      </c>
+      <c r="IC86" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID86" t="n">
+        <v>5</v>
+      </c>
+      <c r="IE86" t="n">
+        <v>97.11405093439821</v>
+      </c>
+      <c r="IF86" t="n">
+        <v>165.4918594842524</v>
+      </c>
+      <c r="IG86" t="n">
+        <v>0.5762640965007384</v>
+      </c>
+      <c r="IH86" t="n">
+        <v>3</v>
+      </c>
+      <c r="II86" t="n">
+        <v>5</v>
+      </c>
+      <c r="IJ86" t="n">
+        <v>85.96183746291142</v>
+      </c>
+      <c r="IK86" t="n">
+        <v>148.633725563884</v>
+      </c>
+      <c r="IL86" t="n">
+        <v>0.5632551095017583</v>
+      </c>
+      <c r="IM86" t="n">
+        <v>7</v>
+      </c>
+      <c r="IN86" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO86" t="n">
+        <v>71.18187532651834</v>
+      </c>
+      <c r="IP86" t="n">
+        <v>129.0997676217893</v>
+      </c>
+      <c r="IQ86" t="n">
+        <v>0.263261089374423</v>
+      </c>
+      <c r="IR86" t="n">
+        <v>6</v>
+      </c>
+      <c r="IS86" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT86" t="n">
+        <v>61.80350693437837</v>
+      </c>
+      <c r="IU86" t="n">
+        <v>133.1912848776035</v>
+      </c>
+      <c r="IV86" t="n">
+        <v>0.2358316647408022</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>22.99275248130738</v>
+      </c>
+      <c r="E87" t="n">
+        <v>62.71806402907822</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.8983616064955778</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>25</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9129251700680272</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E89" t="n">
+        <v>10.24890238025517</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="L89" t="n">
+        <v>6</v>
+      </c>
+      <c r="M89" t="n">
+        <v>7</v>
+      </c>
+      <c r="N89" t="n">
+        <v>6.890521746633444</v>
+      </c>
+      <c r="O89" t="n">
+        <v>9.957305307867326</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>7.26674311886388</v>
+      </c>
+      <c r="T89" t="n">
+        <v>9.358596760910972</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="V89" t="n">
+        <v>7</v>
+      </c>
+      <c r="W89" t="n">
+        <v>7</v>
+      </c>
+      <c r="X89" t="n">
+        <v>6.640936742382548</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>9.652376253904464</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>7.131210743391803</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>10.36386618121935</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>0.7723577235772358</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>65.697962085762</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>63.18227599572526</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>0.7698412698412699</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>59.43220928082684</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>67.93885118251559</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.7698412698412699</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>7.483314773547883</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>11.61416759345623</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>0.7674418604651163</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>7.447890599368742</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>10.81932767040861</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>0.7661290322580645</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>7.154544010627093</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>11.4564392373896</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>0.7615384615384615</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>11.33137237937223</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>0.7580645161290323</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>7.365250408522911</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>11.68833965756545</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>0.7580645161290323</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ89" t="n">
+        <v>29</v>
+      </c>
+      <c r="BR89" t="n">
+        <v>21</v>
+      </c>
+      <c r="BS89" t="n">
+        <v>0.7578125</v>
+      </c>
+      <c r="BT89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV89" t="n">
+        <v>7.780142173822916</v>
+      </c>
+      <c r="BW89" t="n">
+        <v>9.160696881075085</v>
+      </c>
+      <c r="BX89" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="BY89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ89" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA89" t="n">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="CB89" t="n">
+        <v>11.08983205463455</v>
+      </c>
+      <c r="CC89" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="CD89" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE89" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF89" t="n">
+        <v>53.60373121341461</v>
+      </c>
+      <c r="CG89" t="n">
+        <v>61.77183824365274</v>
+      </c>
+      <c r="CH89" t="n">
+        <v>0.100104275286757</v>
+      </c>
+      <c r="CI89" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ89" t="n">
+        <v>9</v>
+      </c>
+      <c r="CK89" t="n">
+        <v>37.8756119880732</v>
+      </c>
+      <c r="CL89" t="n">
+        <v>44.02121952644021</v>
+      </c>
+      <c r="CM89" t="n">
+        <v>0.09951060358890701</v>
+      </c>
+      <c r="CN89" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO89" t="n">
+        <v>11</v>
+      </c>
+      <c r="CP89" t="n">
+        <v>35.86975122933581</v>
+      </c>
+      <c r="CQ89" t="n">
+        <v>40.75137489966465</v>
+      </c>
+      <c r="CR89" t="n">
+        <v>0.09003831417624521</v>
+      </c>
+      <c r="CS89" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT89" t="n">
+        <v>8</v>
+      </c>
+      <c r="CU89" t="n">
+        <v>39.5778978724237</v>
+      </c>
+      <c r="CV89" t="n">
+        <v>46.15408974294694</v>
+      </c>
+      <c r="CW89" t="n">
+        <v>0.06787762906309751</v>
+      </c>
+      <c r="CX89" t="n">
+        <v>2</v>
+      </c>
+      <c r="CY89" t="n">
+        <v>4</v>
+      </c>
+      <c r="CZ89" t="n">
+        <v>49.06939530456388</v>
+      </c>
+      <c r="DA89" t="n">
+        <v>58.34595101633018</v>
+      </c>
+      <c r="DB89" t="n">
+        <v>0.06765676567656766</v>
+      </c>
+      <c r="DC89" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD89" t="n">
+        <v>6</v>
+      </c>
+      <c r="DE89" t="n">
+        <v>43.64916952245483</v>
+      </c>
+      <c r="DF89" t="n">
+        <v>51.53503056174509</v>
+      </c>
+      <c r="DG89" t="n">
+        <v>0.06029684601113173</v>
+      </c>
+      <c r="DH89" t="n">
+        <v>2</v>
+      </c>
+      <c r="DI89" t="n">
+        <v>7</v>
+      </c>
+      <c r="DJ89" t="n">
+        <v>41.22027548562856</v>
+      </c>
+      <c r="DK89" t="n">
+        <v>48.63926169030301</v>
+      </c>
+      <c r="DL89" t="n">
+        <v>0.0542432195975503</v>
+      </c>
+      <c r="DM89" t="n">
+        <v>2</v>
+      </c>
+      <c r="DN89" t="n">
+        <v>5</v>
+      </c>
+      <c r="DO89" t="n">
+        <v>45.92185020805033</v>
+      </c>
+      <c r="DP89" t="n">
+        <v>54.99536158548617</v>
+      </c>
+      <c r="DQ89" t="n">
+        <v>0.04392386530014641</v>
+      </c>
+      <c r="DR89" t="n">
+        <v>2</v>
+      </c>
+      <c r="DS89" t="n">
+        <v>10</v>
+      </c>
+      <c r="DT89" t="n">
+        <v>37.27897828833594</v>
+      </c>
+      <c r="DU89" t="n">
+        <v>42.31528486650342</v>
+      </c>
+      <c r="DV89" t="n">
+        <v>0.02008928571428572</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>17</v>
+      </c>
+      <c r="E90" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9657477025898078</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>23.26714421668461</v>
+      </c>
+      <c r="E91" t="n">
+        <v>26.28307440159922</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.8072947430596574</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>24.77271684737062</v>
+      </c>
+      <c r="J91" t="n">
+        <v>21.92458665516867</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.8053949903660886</v>
+      </c>
+      <c r="L91" t="n">
+        <v>4</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="n">
+        <v>23.96815016271014</v>
+      </c>
+      <c r="O91" t="n">
+        <v>29.06123802516946</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.8035148372227023</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>28.39013913315678</v>
+      </c>
+      <c r="T91" t="n">
+        <v>7.542472332656507</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.2904265111997545</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>55.98396271819862</v>
+      </c>
+      <c r="E92" t="n">
+        <v>30.54204195090126</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.8424308588064047</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>54.45879176037603</v>
+      </c>
+      <c r="J92" t="n">
+        <v>22.90502128355265</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.787584143605086</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>27</v>
+      </c>
+      <c r="O92" t="n">
+        <v>3</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.6938148290434114</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>56.00496009779452</v>
+      </c>
+      <c r="T92" t="n">
+        <v>21.5870331449229</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.5435933639251677</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2</v>
+      </c>
+      <c r="W92" t="n">
+        <v>2</v>
+      </c>
+      <c r="X92" t="n">
+        <v>51.60608006814701</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>25.06366892535887</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0.2302405498281787</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>54.61583002105606</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>28.85981442921782</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>0.2253424657534246</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>11</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.6313065976714101</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>17.68238294649979</v>
+      </c>
+      <c r="J93" t="n">
+        <v>12.68419839362697</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.6311688311688312</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>15</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.8814675446848542</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>26.73325020768456</v>
+      </c>
+      <c r="J94" t="n">
+        <v>13.69509238944942</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.813655761024182</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>10</v>
+      </c>
+      <c r="C95" t="n">
+        <v>11</v>
+      </c>
+      <c r="D95" t="n">
+        <v>22.32576783219453</v>
+      </c>
+      <c r="E95" t="n">
+        <v>10.62918585013616</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9088607594936708</v>
+      </c>
+      <c r="G95" t="n">
+        <v>11</v>
+      </c>
+      <c r="H95" t="n">
+        <v>11</v>
+      </c>
+      <c r="I95" t="n">
+        <v>22.21420883984315</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10.68839256096024</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9077117572692794</v>
+      </c>
+      <c r="L95" t="n">
+        <v>10</v>
+      </c>
+      <c r="M95" t="n">
+        <v>9</v>
+      </c>
+      <c r="N95" t="n">
+        <v>20.80325991926982</v>
+      </c>
+      <c r="O95" t="n">
+        <v>10.55259876619127</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.9074778200253485</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>13</v>
+      </c>
+      <c r="R95" t="n">
+        <v>11</v>
+      </c>
+      <c r="S95" t="n">
+        <v>21.61271327251625</v>
+      </c>
+      <c r="T95" t="n">
+        <v>10.50983335844209</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.9066834804539723</v>
+      </c>
+      <c r="V95" t="n">
+        <v>12</v>
+      </c>
+      <c r="W95" t="n">
+        <v>11</v>
+      </c>
+      <c r="X95" t="n">
+        <v>21.78299921545277</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>10.71736925652552</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0.9065656565656566</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>21.40905182393653</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>10.32424331367679</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0.9062103929024081</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>20.38517980189421</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>10.71243076241364</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>0.9049429657794676</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>19.94733550556631</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>10.47752579155989</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>0.9035532994923858</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>21.52224664368746</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>11.05928082235424</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>0.8992346938775511</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>20.86411331664483</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>11.25039681839839</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0.8979591836734694</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>20.16156960380042</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>11.09834822544929</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0.8968152866242038</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>21.9524422837693</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>11.41240796482301</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>0.8964194373401535</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>19.72456827791169</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>10.76162162501544</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>0.8958068614993647</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ95" t="n">
+        <v>23.82771495548828</v>
+      </c>
+      <c r="BR95" t="n">
+        <v>9.064215354899728</v>
+      </c>
+      <c r="BS95" t="n">
+        <v>0.8901660280970626</v>
+      </c>
+      <c r="BT95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV95" t="n">
+        <v>21.80787319601188</v>
+      </c>
+      <c r="BW95" t="n">
+        <v>8.900686615212459</v>
+      </c>
+      <c r="BX95" t="n">
+        <v>0.8669250645994832</v>
+      </c>
+      <c r="BY95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BZ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA95" t="n">
+        <v>17.53343912651782</v>
+      </c>
+      <c r="CB95" t="n">
+        <v>7.500964125358643</v>
+      </c>
+      <c r="CC95" t="n">
+        <v>0.8536269430051814</v>
+      </c>
+      <c r="CD95" t="n">
+        <v>6</v>
+      </c>
+      <c r="CE95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF95" t="n">
+        <v>19.02260168851779</v>
+      </c>
+      <c r="CG95" t="n">
+        <v>7.745966692414834</v>
+      </c>
+      <c r="CH95" t="n">
+        <v>0.8411458333333334</v>
+      </c>
+      <c r="CI95" t="n">
+        <v>7</v>
+      </c>
+      <c r="CJ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK95" t="n">
+        <v>18.38544781499827</v>
+      </c>
+      <c r="CL95" t="n">
+        <v>7.831560082980487</v>
+      </c>
+      <c r="CM95" t="n">
+        <v>0.8387516254876463</v>
+      </c>
+      <c r="CN95" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP95" t="n">
+        <v>20.19698906636677</v>
+      </c>
+      <c r="CQ95" t="n">
+        <v>8.280786712108251</v>
+      </c>
+      <c r="CR95" t="n">
+        <v>0.835509138381201</v>
+      </c>
+      <c r="CS95" t="n">
+        <v>8</v>
+      </c>
+      <c r="CT95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU95" t="n">
+        <v>17.58863269273652</v>
+      </c>
+      <c r="CV95" t="n">
+        <v>7.525955088890711</v>
+      </c>
+      <c r="CW95" t="n">
+        <v>0.8203125</v>
+      </c>
+      <c r="CX95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CY95" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ95" t="n">
+        <v>26.18205492317209</v>
+      </c>
+      <c r="DA95" t="n">
+        <v>8.860022573334675</v>
+      </c>
+      <c r="DB95" t="n">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="DC95" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD95" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE95" t="n">
+        <v>29.32954520994525</v>
+      </c>
+      <c r="DF95" t="n">
+        <v>7.133644853010899</v>
+      </c>
+      <c r="DG95" t="n">
+        <v>0.124331550802139</v>
+      </c>
+      <c r="DH95" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI95" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ95" t="n">
+        <v>13</v>
+      </c>
+      <c r="DK95" t="n">
+        <v>6</v>
+      </c>
+      <c r="DL95" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>41.73727350941842</v>
+      </c>
+      <c r="E96" t="n">
+        <v>27.65260686927485</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.9130285321416294</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>41.99627959712622</v>
+      </c>
+      <c r="J96" t="n">
+        <v>24.45914961727002</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.8731086657496562</v>
+      </c>
+      <c r="L96" t="n">
+        <v>4</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>37.63296427336013</v>
+      </c>
+      <c r="O96" t="n">
+        <v>26.75369133409444</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.8470264695771743</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>13</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9444135630906059</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>53.61203223158025</v>
+      </c>
+      <c r="E98" t="n">
+        <v>54.1293300808351</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.8094457687723481</v>
+      </c>
+      <c r="G98" t="n">
+        <v>4</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>17.57286418190147</v>
+      </c>
+      <c r="J98" t="n">
+        <v>46.41719030225285</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.7932926829268293</v>
+      </c>
+      <c r="L98" t="n">
+        <v>5</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="n">
+        <v>16.28195445320759</v>
+      </c>
+      <c r="O98" t="n">
+        <v>45.84890891809304</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.7918890074706511</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1</v>
+      </c>
+      <c r="S98" t="n">
+        <v>10.68585513658125</v>
+      </c>
+      <c r="T98" t="n">
+        <v>27.44540034322691</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.5307185537000153</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3</v>
+      </c>
+      <c r="W98" t="n">
+        <v>2</v>
+      </c>
+      <c r="X98" t="n">
+        <v>19.24162155328911</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>26.43179903071299</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0.4106813996316759</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9452160493827161</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>24</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>180.1169857573416</v>
+      </c>
+      <c r="E100" t="n">
+        <v>131.4013332371183</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1064754061269741</v>
+      </c>
+      <c r="G100" t="n">
+        <v>26</v>
+      </c>
+      <c r="H100" t="n">
+        <v>19</v>
+      </c>
+      <c r="I100" t="n">
+        <v>161.1255686999704</v>
+      </c>
+      <c r="J100" t="n">
+        <v>113.4815893046582</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.1028943937418514</v>
+      </c>
+      <c r="L100" t="n">
+        <v>24</v>
+      </c>
+      <c r="M100" t="n">
+        <v>8</v>
+      </c>
+      <c r="N100" t="n">
+        <v>172.0089818694071</v>
+      </c>
+      <c r="O100" t="n">
+        <v>130.2516757029924</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.1026535671655495</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>20</v>
+      </c>
+      <c r="R100" t="n">
+        <v>19</v>
+      </c>
+      <c r="S100" t="n">
+        <v>146.008204537423</v>
+      </c>
+      <c r="T100" t="n">
+        <v>113.9812261782814</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.09957140195043171</v>
+      </c>
+      <c r="V100" t="n">
+        <v>25</v>
+      </c>
+      <c r="W100" t="n">
+        <v>19</v>
+      </c>
+      <c r="X100" t="n">
+        <v>157.5328707663922</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>112.6206056920592</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0.09941041598427776</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>139.3762942004183</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>115.2430167454291</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>0.09813343189798558</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>161.2858318799807</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>113.7781000419208</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>0.09808277394117931</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>126.7322341287937</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>116.4516847743246</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0.09793367978223212</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>127.0420485460048</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>117.6949000856572</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0.09695660461274541</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>36</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>168.8925483630405</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>111.2132877488155</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>0.09669548839996575</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>162.506453886086</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>124.7806816874012</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>0.0966594881554565</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>19</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>156.7711628457224</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>112.6039491980632</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>0.09655426570849457</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>19</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>159.3036303381232</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>111.9875014272003</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>0.09562699102229945</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>24</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>19</v>
+      </c>
+      <c r="BQ100" t="n">
+        <v>159.3335667889185</v>
+      </c>
+      <c r="BR100" t="n">
+        <v>111.7331335433782</v>
+      </c>
+      <c r="BS100" t="n">
+        <v>0.09491150442477876</v>
+      </c>
+      <c r="BT100" t="n">
+        <v>34</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>19</v>
+      </c>
+      <c r="BV100" t="n">
+        <v>171.6853447460487</v>
+      </c>
+      <c r="BW100" t="n">
+        <v>112.4762701922258</v>
+      </c>
+      <c r="BX100" t="n">
+        <v>0.09455225828909582</v>
+      </c>
+      <c r="BY100" t="n">
+        <v>15</v>
+      </c>
+      <c r="BZ100" t="n">
+        <v>19</v>
+      </c>
+      <c r="CA100" t="n">
+        <v>123.1704623794527</v>
+      </c>
+      <c r="CB100" t="n">
+        <v>120.4045947461564</v>
+      </c>
+      <c r="CC100" t="n">
+        <v>0.09421665401164263</v>
+      </c>
+      <c r="CD100" t="n">
+        <v>35</v>
+      </c>
+      <c r="CE100" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF100" t="n">
+        <v>170.3678985327932</v>
+      </c>
+      <c r="CG100" t="n">
+        <v>111.7558961106781</v>
+      </c>
+      <c r="CH100" t="n">
+        <v>0.0940816150461565</v>
+      </c>
+      <c r="CI100" t="n">
+        <v>23</v>
+      </c>
+      <c r="CJ100" t="n">
+        <v>19</v>
+      </c>
+      <c r="CK100" t="n">
+        <v>160.9817826766169</v>
+      </c>
+      <c r="CL100" t="n">
+        <v>110.7515042408453</v>
+      </c>
+      <c r="CM100" t="n">
+        <v>0.09253300787751026</v>
+      </c>
+      <c r="CN100" t="n">
+        <v>33</v>
+      </c>
+      <c r="CO100" t="n">
+        <v>19</v>
+      </c>
+      <c r="CP100" t="n">
+        <v>172.7576713716398</v>
+      </c>
+      <c r="CQ100" t="n">
+        <v>112.9526839069136</v>
+      </c>
+      <c r="CR100" t="n">
+        <v>0.09030817720189109</v>
+      </c>
+      <c r="CS100" t="n">
+        <v>24</v>
+      </c>
+      <c r="CT100" t="n">
+        <v>6</v>
+      </c>
+      <c r="CU100" t="n">
+        <v>156.8873233318174</v>
+      </c>
+      <c r="CV100" t="n">
+        <v>119.0191581217074</v>
+      </c>
+      <c r="CW100" t="n">
+        <v>0.08846032910596374</v>
+      </c>
+      <c r="CX100" t="n">
+        <v>32</v>
+      </c>
+      <c r="CY100" t="n">
+        <v>19</v>
+      </c>
+      <c r="CZ100" t="n">
+        <v>173.3275218615871</v>
+      </c>
+      <c r="DA100" t="n">
+        <v>113.6503098359075</v>
+      </c>
+      <c r="DB100" t="n">
+        <v>0.0877317799813242</v>
+      </c>
+      <c r="DC100" t="n">
+        <v>29</v>
+      </c>
+      <c r="DD100" t="n">
+        <v>19</v>
+      </c>
+      <c r="DE100" t="n">
+        <v>171.0457216328105</v>
+      </c>
+      <c r="DF100" t="n">
+        <v>116.2592719570023</v>
+      </c>
+      <c r="DG100" t="n">
+        <v>0.08726706652625796</v>
+      </c>
+      <c r="DH100" t="n">
+        <v>16</v>
+      </c>
+      <c r="DI100" t="n">
+        <v>19</v>
+      </c>
+      <c r="DJ100" t="n">
+        <v>124.8533703254848</v>
+      </c>
+      <c r="DK100" t="n">
+        <v>118.9012761470109</v>
+      </c>
+      <c r="DL100" t="n">
+        <v>0.08689753198087609</v>
+      </c>
+      <c r="DM100" t="n">
+        <v>31</v>
+      </c>
+      <c r="DN100" t="n">
+        <v>19</v>
+      </c>
+      <c r="DO100" t="n">
+        <v>172.5119126321426</v>
+      </c>
+      <c r="DP100" t="n">
+        <v>114.3549019500257</v>
+      </c>
+      <c r="DQ100" t="n">
+        <v>0.08614415054145216</v>
+      </c>
+      <c r="DR100" t="n">
+        <v>30</v>
+      </c>
+      <c r="DS100" t="n">
+        <v>19</v>
+      </c>
+      <c r="DT100" t="n">
+        <v>173.6624136148655</v>
+      </c>
+      <c r="DU100" t="n">
+        <v>115.3885275343579</v>
+      </c>
+      <c r="DV100" t="n">
+        <v>0.08549652544272585</v>
+      </c>
+      <c r="DW100" t="n">
+        <v>28</v>
+      </c>
+      <c r="DX100" t="n">
+        <v>19</v>
+      </c>
+      <c r="DY100" t="n">
+        <v>165.3482764120905</v>
+      </c>
+      <c r="DZ100" t="n">
+        <v>117.1114159606244</v>
+      </c>
+      <c r="EA100" t="n">
+        <v>0.08506894912030433</v>
+      </c>
+      <c r="EB100" t="n">
+        <v>24</v>
+      </c>
+      <c r="EC100" t="n">
+        <v>5</v>
+      </c>
+      <c r="ED100" t="n">
+        <v>157.3004426277682</v>
+      </c>
+      <c r="EE100" t="n">
+        <v>110.5454749024269</v>
+      </c>
+      <c r="EF100" t="n">
+        <v>0.08263827919227393</v>
+      </c>
+      <c r="EG100" t="n">
+        <v>14</v>
+      </c>
+      <c r="EH100" t="n">
+        <v>19</v>
+      </c>
+      <c r="EI100" t="n">
+        <v>123.7907236051583</v>
+      </c>
+      <c r="EJ100" t="n">
+        <v>122.1056310084303</v>
+      </c>
+      <c r="EK100" t="n">
+        <v>0.07957326639472859</v>
+      </c>
+      <c r="EL100" t="n">
+        <v>13</v>
+      </c>
+      <c r="EM100" t="n">
+        <v>19</v>
+      </c>
+      <c r="EN100" t="n">
+        <v>121.3856803681452</v>
+      </c>
+      <c r="EO100" t="n">
+        <v>122.4504324142528</v>
+      </c>
+      <c r="EP100" t="n">
+        <v>0.07518213304669771</v>
+      </c>
+      <c r="EQ100" t="n">
+        <v>22</v>
+      </c>
+      <c r="ER100" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES100" t="n">
+        <v>165.5180419840152</v>
+      </c>
+      <c r="ET100" t="n">
+        <v>90.13735660399387</v>
+      </c>
+      <c r="EU100" t="n">
+        <v>0.06983028861744676</v>
+      </c>
+      <c r="EV100" t="n">
+        <v>24</v>
+      </c>
+      <c r="EW100" t="n">
+        <v>4</v>
+      </c>
+      <c r="EX100" t="n">
+        <v>159.9996293044175</v>
+      </c>
+      <c r="EY100" t="n">
+        <v>99.2732456199472</v>
+      </c>
+      <c r="EZ100" t="n">
+        <v>0.06677663386610545</v>
+      </c>
+      <c r="FA100" t="n">
+        <v>24</v>
+      </c>
+      <c r="FB100" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC100" t="n">
+        <v>161.4399012511354</v>
+      </c>
+      <c r="FD100" t="n">
+        <v>86.80492310091758</v>
+      </c>
+      <c r="FE100" t="n">
+        <v>0.06587629419022585</v>
+      </c>
+      <c r="FF100" t="n">
+        <v>23</v>
+      </c>
+      <c r="FG100" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH100" t="n">
+        <v>164.63300276676</v>
+      </c>
+      <c r="FI100" t="n">
+        <v>88.51932218448128</v>
+      </c>
+      <c r="FJ100" t="n">
+        <v>0.06366542354821524</v>
+      </c>
+      <c r="FK100" t="n">
+        <v>12</v>
+      </c>
+      <c r="FL100" t="n">
+        <v>19</v>
+      </c>
+      <c r="FM100" t="n">
+        <v>123.09208248312</v>
+      </c>
+      <c r="FN100" t="n">
+        <v>120.6298247971584</v>
+      </c>
+      <c r="FO100" t="n">
+        <v>0.06336201815395497</v>
+      </c>
+      <c r="FP100" t="n">
+        <v>11</v>
+      </c>
+      <c r="FQ100" t="n">
+        <v>19</v>
+      </c>
+      <c r="FR100" t="n">
+        <v>122.8821883847379</v>
+      </c>
+      <c r="FS100" t="n">
+        <v>115.6813823492018</v>
+      </c>
+      <c r="FT100" t="n">
+        <v>0.06204062735111986</v>
+      </c>
+      <c r="FU100" t="n">
+        <v>10</v>
+      </c>
+      <c r="FV100" t="n">
+        <v>15</v>
+      </c>
+      <c r="FW100" t="n">
+        <v>114.1471751731071</v>
+      </c>
+      <c r="FX100" t="n">
+        <v>106.6317026029314</v>
+      </c>
+      <c r="FY100" t="n">
+        <v>0.06126367232953223</v>
+      </c>
+      <c r="FZ100" t="n">
+        <v>10</v>
+      </c>
+      <c r="GA100" t="n">
+        <v>19</v>
+      </c>
+      <c r="GB100" t="n">
+        <v>122.5713216628327</v>
+      </c>
+      <c r="GC100" t="n">
+        <v>116.1495305043686</v>
+      </c>
+      <c r="GD100" t="n">
+        <v>0.06085632284894277</v>
+      </c>
+      <c r="GE100" t="n">
+        <v>20</v>
+      </c>
+      <c r="GF100" t="n">
+        <v>2</v>
+      </c>
+      <c r="GG100" t="n">
+        <v>161.8255616294725</v>
+      </c>
+      <c r="GH100" t="n">
+        <v>91.97103613422709</v>
+      </c>
+      <c r="GI100" t="n">
+        <v>0.06000209248796819</v>
+      </c>
+      <c r="GJ100" t="n">
+        <v>21</v>
+      </c>
+      <c r="GK100" t="n">
+        <v>2</v>
+      </c>
+      <c r="GL100" t="n">
+        <v>168.6155793827664</v>
+      </c>
+      <c r="GM100" t="n">
+        <v>90.7322657347904</v>
+      </c>
+      <c r="GN100" t="n">
+        <v>0.05965579136310844</v>
+      </c>
+      <c r="GO100" t="n">
+        <v>19</v>
+      </c>
+      <c r="GP100" t="n">
+        <v>2</v>
+      </c>
+      <c r="GQ100" t="n">
+        <v>154.2494813421785</v>
+      </c>
+      <c r="GR100" t="n">
+        <v>94.10511804694995</v>
+      </c>
+      <c r="GS100" t="n">
+        <v>0.05954529050884157</v>
+      </c>
+      <c r="GT100" t="n">
+        <v>10</v>
+      </c>
+      <c r="GU100" t="n">
+        <v>17</v>
+      </c>
+      <c r="GV100" t="n">
+        <v>115.6275416804393</v>
+      </c>
+      <c r="GW100" t="n">
+        <v>111.7461236872317</v>
+      </c>
+      <c r="GX100" t="n">
+        <v>0.05838537787199909</v>
+      </c>
+      <c r="GY100" t="n">
+        <v>10</v>
+      </c>
+      <c r="GZ100" t="n">
+        <v>14</v>
+      </c>
+      <c r="HA100" t="n">
+        <v>114.7466336349592</v>
+      </c>
+      <c r="HB100" t="n">
+        <v>103.7990764115408</v>
+      </c>
+      <c r="HC100" t="n">
+        <v>0.05819625638116846</v>
+      </c>
+      <c r="HD100" t="n">
+        <v>10</v>
+      </c>
+      <c r="HE100" t="n">
+        <v>18</v>
+      </c>
+      <c r="HF100" t="n">
+        <v>118.2283979491926</v>
+      </c>
+      <c r="HG100" t="n">
+        <v>114.6841492170241</v>
+      </c>
+      <c r="HH100" t="n">
+        <v>0.05783743303185667</v>
+      </c>
+      <c r="HI100" t="n">
+        <v>10</v>
+      </c>
+      <c r="HJ100" t="n">
+        <v>16</v>
+      </c>
+      <c r="HK100" t="n">
+        <v>115.8156883528266</v>
+      </c>
+      <c r="HL100" t="n">
+        <v>108.0680806675662</v>
+      </c>
+      <c r="HM100" t="n">
+        <v>0.05532106477573302</v>
+      </c>
+      <c r="HN100" t="n">
+        <v>24</v>
+      </c>
+      <c r="HO100" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP100" t="n">
+        <v>158.4325571701339</v>
+      </c>
+      <c r="HQ100" t="n">
+        <v>85.40257286114485</v>
+      </c>
+      <c r="HR100" t="n">
+        <v>0.05243380737657533</v>
+      </c>
+      <c r="HS100" t="n">
+        <v>9</v>
+      </c>
+      <c r="HT100" t="n">
+        <v>13</v>
+      </c>
+      <c r="HU100" t="n">
+        <v>118.8811476758501</v>
+      </c>
+      <c r="HV100" t="n">
+        <v>92.74607652479862</v>
+      </c>
+      <c r="HW100" t="n">
+        <v>0.0520183334253686</v>
+      </c>
+      <c r="HX100" t="n">
+        <v>8</v>
+      </c>
+      <c r="HY100" t="n">
+        <v>13</v>
+      </c>
+      <c r="HZ100" t="n">
+        <v>118.690129913045</v>
+      </c>
+      <c r="IA100" t="n">
+        <v>85.27628833077765</v>
+      </c>
+      <c r="IB100" t="n">
+        <v>0.04721030042918455</v>
+      </c>
+      <c r="IC100" t="n">
+        <v>10</v>
+      </c>
+      <c r="ID100" t="n">
+        <v>13</v>
+      </c>
+      <c r="IE100" t="n">
+        <v>116.5683067232476</v>
+      </c>
+      <c r="IF100" t="n">
+        <v>98.21911386752832</v>
+      </c>
+      <c r="IG100" t="n">
+        <v>0.04646695394839313</v>
+      </c>
+      <c r="IH100" t="n">
+        <v>18</v>
+      </c>
+      <c r="II100" t="n">
+        <v>2</v>
+      </c>
+      <c r="IJ100" t="n">
+        <v>156.9909153422579</v>
+      </c>
+      <c r="IK100" t="n">
+        <v>96.41861853397403</v>
+      </c>
+      <c r="IL100" t="n">
+        <v>0.04253871912934282</v>
+      </c>
+      <c r="IM100" t="n">
+        <v>16</v>
+      </c>
+      <c r="IN100" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO100" t="n">
+        <v>165.8251257148298</v>
+      </c>
+      <c r="IP100" t="n">
+        <v>99.13099927520673</v>
+      </c>
+      <c r="IQ100" t="n">
+        <v>0.04095112285336856</v>
+      </c>
+      <c r="IR100" t="n">
+        <v>16</v>
+      </c>
+      <c r="IS100" t="n">
+        <v>2</v>
+      </c>
+      <c r="IT100" t="n">
+        <v>161.3673536980333</v>
+      </c>
+      <c r="IU100" t="n">
+        <v>99.43687122000918</v>
+      </c>
+      <c r="IV100" t="n">
+        <v>0.0383486899675709</v>
+      </c>
+      <c r="IW100" t="n">
+        <v>17</v>
+      </c>
+      <c r="IX100" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY100" t="n">
+        <v>157.1494339739662</v>
+      </c>
+      <c r="IZ100" t="n">
+        <v>98.69570459378238</v>
+      </c>
+      <c r="JA100" t="n">
+        <v>0.03819045238690327</v>
+      </c>
+      <c r="JB100" t="n">
+        <v>5</v>
+      </c>
+      <c r="JC100" t="n">
+        <v>7</v>
+      </c>
+      <c r="JD100" t="n">
+        <v>107.7833152930246</v>
+      </c>
+      <c r="JE100" t="n">
+        <v>72.47351048639925</v>
+      </c>
+      <c r="JF100" t="n">
+        <v>0.03696653361989561</v>
+      </c>
+      <c r="JG100" t="n">
+        <v>6</v>
+      </c>
+      <c r="JH100" t="n">
+        <v>13</v>
+      </c>
+      <c r="JI100" t="n">
+        <v>92.50859060206277</v>
+      </c>
+      <c r="JJ100" t="n">
+        <v>75.92626544176605</v>
+      </c>
+      <c r="JK100" t="n">
+        <v>0.0335812356979405</v>
+      </c>
+      <c r="JL100" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM100" t="n">
+        <v>13</v>
+      </c>
+      <c r="JN100" t="n">
+        <v>110.6082614455177</v>
+      </c>
+      <c r="JO100" t="n">
+        <v>75.01093253653097</v>
+      </c>
+      <c r="JP100" t="n">
+        <v>0.03209663503019845</v>
+      </c>
+      <c r="JQ100" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR100" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS100" t="n">
+        <v>108.1782990192498</v>
+      </c>
+      <c r="JT100" t="n">
+        <v>89.6502078263827</v>
+      </c>
+      <c r="JU100" t="n">
+        <v>0.03034547152194211</v>
+      </c>
+      <c r="JV100" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW100" t="n">
+        <v>12</v>
+      </c>
+      <c r="JX100" t="n">
+        <v>93.47779824873979</v>
+      </c>
+      <c r="JY100" t="n">
+        <v>77.94531558870118</v>
+      </c>
+      <c r="JZ100" t="n">
+        <v>0.03002809646452822</v>
+      </c>
+      <c r="KA100" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB100" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC100" t="n">
+        <v>95.98709544178051</v>
+      </c>
+      <c r="KD100" t="n">
+        <v>80.11172993611112</v>
+      </c>
+      <c r="KE100" t="n">
+        <v>0.02912960055817199</v>
+      </c>
+      <c r="KF100" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG100" t="n">
+        <v>10</v>
+      </c>
+      <c r="KH100" t="n">
+        <v>98.87207644223925</v>
+      </c>
+      <c r="KI100" t="n">
+        <v>82.51531581318707</v>
+      </c>
+      <c r="KJ100" t="n">
+        <v>0.02640875658771066</v>
+      </c>
+      <c r="KK100" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL100" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM100" t="n">
+        <v>104.8680657993166</v>
+      </c>
+      <c r="KN100" t="n">
+        <v>87.48565480076358</v>
+      </c>
+      <c r="KO100" t="n">
+        <v>0.02539305843963216</v>
+      </c>
+      <c r="KP100" t="n">
+        <v>3</v>
+      </c>
+      <c r="KQ100" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR100" t="n">
+        <v>47.81882474507294</v>
+      </c>
+      <c r="KS100" t="n">
+        <v>17.75837830433849</v>
+      </c>
+      <c r="KT100" t="n">
+        <v>0.01898007429922324</v>
+      </c>
+      <c r="KU100" t="n">
+        <v>3</v>
+      </c>
+      <c r="KV100" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW100" t="n">
+        <v>46.37078821844632</v>
+      </c>
+      <c r="KX100" t="n">
+        <v>16.33056949405011</v>
+      </c>
+      <c r="KY100" t="n">
+        <v>0.01862765020659757</v>
+      </c>
+      <c r="KZ100" t="n">
+        <v>6</v>
+      </c>
+      <c r="LA100" t="n">
+        <v>9</v>
+      </c>
+      <c r="LB100" t="n">
+        <v>101.3832333278043</v>
+      </c>
+      <c r="LC100" t="n">
+        <v>85.01581552210676</v>
+      </c>
+      <c r="LD100" t="n">
+        <v>0.01838651278569812</v>
+      </c>
+      <c r="LE100" t="n">
+        <v>3</v>
+      </c>
+      <c r="LF100" t="n">
+        <v>3</v>
+      </c>
+      <c r="LG100" t="n">
+        <v>51.91472709057507</v>
+      </c>
+      <c r="LH100" t="n">
+        <v>19.52491286080996</v>
+      </c>
+      <c r="LI100" t="n">
+        <v>0.01117536222467676</v>
+      </c>
+      <c r="LJ100" t="n">
+        <v>3</v>
+      </c>
+      <c r="LK100" t="n">
+        <v>5</v>
+      </c>
+      <c r="LL100" t="n">
+        <v>88.35157044444654</v>
+      </c>
+      <c r="LM100" t="n">
+        <v>17.23368793961409</v>
+      </c>
+      <c r="LN100" t="n">
+        <v>0.006970200792940274</v>
+      </c>
+      <c r="LO100" t="n">
+        <v>3</v>
+      </c>
+      <c r="LP100" t="n">
+        <v>4</v>
+      </c>
+      <c r="LQ100" t="n">
+        <v>68.09117536997952</v>
+      </c>
+      <c r="LR100" t="n">
+        <v>18.17264146895502</v>
+      </c>
+      <c r="LS100" t="n">
+        <v>0.006438735432361085</v>
+      </c>
+      <c r="LT100" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU100" t="n">
+        <v>6</v>
+      </c>
+      <c r="LV100" t="n">
+        <v>99.99012296901142</v>
+      </c>
+      <c r="LW100" t="n">
+        <v>16.33975686235838</v>
+      </c>
+      <c r="LX100" t="n">
+        <v>0.006159260888693356</v>
+      </c>
+      <c r="LY100" t="n">
+        <v>3</v>
+      </c>
+      <c r="LZ100" t="n">
+        <v>7</v>
+      </c>
+      <c r="MA100" t="n">
+        <v>116.675447288622</v>
+      </c>
+      <c r="MB100" t="n">
+        <v>15.97623234683322</v>
+      </c>
+      <c r="MC100" t="n">
+        <v>0.004284752402521883</v>
+      </c>
+      <c r="MD100" t="n">
+        <v>4</v>
+      </c>
+      <c r="ME100" t="n">
+        <v>7</v>
+      </c>
+      <c r="MF100" t="n">
+        <v>112.0221347666877</v>
+      </c>
+      <c r="MG100" t="n">
+        <v>35.72322438317374</v>
+      </c>
+      <c r="MH100" t="n">
+        <v>6.39386189258312e-05</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>14</v>
+      </c>
+      <c r="E101" t="n">
+        <v>24</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.8076781100036914</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>16.37803407005859</v>
+      </c>
+      <c r="E102" t="n">
+        <v>36.55461667149581</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.5856842105263158</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>16.0147501454822</v>
+      </c>
+      <c r="J102" t="n">
+        <v>42.72652051777158</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.5849852382960776</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>8</v>
+      </c>
+      <c r="O102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.5849535080304311</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>14.82689228037614</v>
+      </c>
+      <c r="T102" t="n">
+        <v>40.72456010711923</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.5810410495133305</v>
+      </c>
+      <c r="V102" t="n">
+        <v>4</v>
+      </c>
+      <c r="W102" t="n">
+        <v>6</v>
+      </c>
+      <c r="X102" t="n">
+        <v>109.4319880108188</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>41.81817786561246</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0.5807545570156846</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>17.61923664634765</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>38.12622948837191</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>0.5779000846740051</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>16.78917934891031</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>36.9978311009286</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>0.576091564222128</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>155.7711997343112</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>35.09704359537712</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0.5581148121899362</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>130.8724696251474</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>40.86846467581915</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>0.483941605839416</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>149.0067448137835</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>42.38879568942718</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0.4525214592274678</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>148.0048022450735</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>53.75779781990963</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0.4257894736842106</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>144.8239352531971</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>53.99819955846264</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>0.4062790697674419</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>158.5784013508775</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>35.77512229189441</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>0.3114074074074074</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ102" t="n">
+        <v>158.6106772533788</v>
+      </c>
+      <c r="BR102" t="n">
+        <v>30.8703675364699</v>
+      </c>
+      <c r="BS102" t="n">
+        <v>0.2645502645502645</v>
+      </c>
+      <c r="BT102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BV102" t="n">
+        <v>145.1115232042813</v>
+      </c>
+      <c r="BW102" t="n">
+        <v>39.80124230333632</v>
+      </c>
+      <c r="BX102" t="n">
+        <v>0.252710027100271</v>
+      </c>
+      <c r="BY102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BZ102" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA102" t="n">
+        <v>158.5778795341614</v>
+      </c>
+      <c r="CB102" t="n">
+        <v>37.37571240191978</v>
+      </c>
+      <c r="CC102" t="n">
+        <v>0.2229930624380575</v>
+      </c>
+      <c r="CD102" t="n">
+        <v>7</v>
+      </c>
+      <c r="CE102" t="n">
+        <v>6</v>
+      </c>
+      <c r="CF102" t="n">
+        <v>153.6937321871307</v>
+      </c>
+      <c r="CG102" t="n">
+        <v>38.45276823084892</v>
+      </c>
+      <c r="CH102" t="n">
+        <v>0.2002661343978709</v>
+      </c>
+      <c r="CI102" t="n">
+        <v>9</v>
+      </c>
+      <c r="CJ102" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK102" t="n">
+        <v>163.0173269590962</v>
+      </c>
+      <c r="CL102" t="n">
+        <v>36.96100046745969</v>
+      </c>
+      <c r="CM102" t="n">
+        <v>0.1963383838383838</v>
+      </c>
+      <c r="CN102" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO102" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP102" t="n">
+        <v>162.6116710311888</v>
+      </c>
+      <c r="CQ102" t="n">
+        <v>23.27671702701125</v>
+      </c>
+      <c r="CR102" t="n">
+        <v>0.1612043698374634</v>
+      </c>
+      <c r="CS102" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT102" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU102" t="n">
+        <v>158.5691016560288</v>
+      </c>
+      <c r="CV102" t="n">
+        <v>25.4825430442097</v>
+      </c>
+      <c r="CW102" t="n">
+        <v>0.1586871424269798</v>
+      </c>
+      <c r="CX102" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY102" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ102" t="n">
+        <v>161.4032217770141</v>
+      </c>
+      <c r="DA102" t="n">
+        <v>28.39344114403888</v>
+      </c>
+      <c r="DB102" t="n">
+        <v>0.1463840399002494</v>
+      </c>
+      <c r="DC102" t="n">
+        <v>2</v>
+      </c>
+      <c r="DD102" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE102" t="n">
+        <v>145.3394494125926</v>
+      </c>
+      <c r="DF102" t="n">
+        <v>25.84999462712173</v>
+      </c>
+      <c r="DG102" t="n">
+        <v>0.07639785938365012</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.8830601092896175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/kwatchar3/kwatchar3.xlsx
+++ b/kwatchar3/kwatchar3.xlsx
@@ -22219,118 +22219,118 @@
         <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D125" t="n">
-        <v>6.128258770283412</v>
+        <v>10.74430081485063</v>
       </c>
       <c r="E125" t="n">
-        <v>5.90668171555645</v>
+        <v>11.41227409414968</v>
       </c>
       <c r="F125" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>4.166458328124739</v>
+        <v>11.05667219374799</v>
       </c>
       <c r="J125" t="n">
-        <v>2.146945504664708</v>
+        <v>12.07010770457331</v>
       </c>
       <c r="K125" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M125" t="n">
         <v>4</v>
       </c>
       <c r="N125" t="n">
-        <v>3.943478211954932</v>
+        <v>9.809292646374773</v>
       </c>
       <c r="O125" t="n">
-        <v>1.979486637221574</v>
+        <v>10.43099015221257</v>
       </c>
       <c r="P125" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="Q125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R125" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S125" t="n">
-        <v>5.873670062235365</v>
+        <v>14.5</v>
       </c>
       <c r="T125" t="n">
-        <v>4.205650960315181</v>
+        <v>13</v>
       </c>
       <c r="U125" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="V125" t="n">
         <v>2</v>
       </c>
       <c r="W125" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X125" t="n">
-        <v>5.539629951540085</v>
+        <v>4.189935029992178</v>
       </c>
       <c r="Y125" t="n">
-        <v>5.673402858955108</v>
+        <v>3.435921354681384</v>
       </c>
       <c r="Z125" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="AA125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC125" t="n">
-        <v>3.666060555964672</v>
+        <v>3.655133376499413</v>
       </c>
       <c r="AD125" t="n">
-        <v>1.019803902718557</v>
+        <v>3.611094017053558</v>
       </c>
       <c r="AE125" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="AF125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH125" t="n">
-        <v>2.772634126602354</v>
+        <v>3.082207001484488</v>
       </c>
       <c r="AI125" t="n">
-        <v>1.089724735885168</v>
+        <v>3.201562118716424</v>
       </c>
       <c r="AJ125" t="n">
         <v>0.6326530612244898</v>
       </c>
       <c r="AK125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL125" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM125" t="n">
-        <v>4.521553322083512</v>
+        <v>5.159194118330622</v>
       </c>
       <c r="AN125" t="n">
-        <v>2.793290019994786</v>
+        <v>3.435472185275624</v>
       </c>
       <c r="AO125" t="n">
         <v>0.6326530612244898</v>
@@ -22342,208 +22342,208 @@
         <v>7</v>
       </c>
       <c r="AR125" t="n">
-        <v>5.122499389946279</v>
+        <v>4.90815647672321</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.68514431641951</v>
+        <v>3.263433774416144</v>
       </c>
       <c r="AT125" t="n">
         <v>0.6326530612244898</v>
       </c>
       <c r="AU125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.943920288775949</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>2.160246899469287</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>12.22929088522943</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>12.49888883950178</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>5.431390245600108</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>3.24037034920393</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>9.129454462097405</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>9.720586192116571</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>0.6101694915254238</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ125" t="n">
+        <v>5.0709255283711</v>
+      </c>
+      <c r="BR125" t="n">
+        <v>3.245090483314442</v>
+      </c>
+      <c r="BS125" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BT125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV125" t="n">
+        <v>8.576712656956627</v>
+      </c>
+      <c r="BW125" t="n">
+        <v>8.535221145348256</v>
+      </c>
+      <c r="BX125" t="n">
+        <v>0.5862068965517241</v>
+      </c>
+      <c r="BY125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ125" t="n">
         <v>8</v>
       </c>
-      <c r="AW125" t="n">
-        <v>5.059970927300271</v>
-      </c>
-      <c r="AX125" t="n">
-        <v>3.039682454054634</v>
-      </c>
-      <c r="AY125" t="n">
-        <v>0.6326530612244898</v>
-      </c>
-      <c r="AZ125" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA125" t="n">
+      <c r="CA125" t="n">
+        <v>9.01513878277685</v>
+      </c>
+      <c r="CB125" t="n">
+        <v>8.19997984274886</v>
+      </c>
+      <c r="CC125" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="CD125" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE125" t="n">
+        <v>6</v>
+      </c>
+      <c r="CF125" t="n">
+        <v>8.573214099741124</v>
+      </c>
+      <c r="CG125" t="n">
+        <v>9.443913383762052</v>
+      </c>
+      <c r="CH125" t="n">
+        <v>0.5223880597014925</v>
+      </c>
+      <c r="CI125" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ125" t="n">
         <v>7</v>
       </c>
-      <c r="BB125" t="n">
-        <v>6.699917080747261</v>
-      </c>
-      <c r="BC125" t="n">
-        <v>4.136557881996953</v>
-      </c>
-      <c r="BD125" t="n">
-        <v>0.6326530612244898</v>
-      </c>
-      <c r="BE125" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF125" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG125" t="n">
-        <v>4.806458240360207</v>
-      </c>
-      <c r="BH125" t="n">
-        <v>4.485805276602166</v>
-      </c>
-      <c r="BI125" t="n">
-        <v>0.6326530612244898</v>
-      </c>
-      <c r="BJ125" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK125" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL125" t="n">
-        <v>3.905124837953327</v>
-      </c>
-      <c r="BM125" t="n">
-        <v>1.572330188676101</v>
-      </c>
-      <c r="BN125" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="BO125" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP125" t="n">
-        <v>3</v>
-      </c>
-      <c r="BQ125" t="n">
-        <v>5.003998401278722</v>
-      </c>
-      <c r="BR125" t="n">
-        <v>5.083306010855534</v>
-      </c>
-      <c r="BS125" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="BT125" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU125" t="n">
+      <c r="CK125" t="n">
+        <v>8.919392106839767</v>
+      </c>
+      <c r="CL125" t="n">
+        <v>8.912468724513545</v>
+      </c>
+      <c r="CM125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CN125" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO125" t="n">
+        <v>9</v>
+      </c>
+      <c r="CP125" t="n">
+        <v>8.671072598012312</v>
+      </c>
+      <c r="CQ125" t="n">
+        <v>7.854139036202504</v>
+      </c>
+      <c r="CR125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CS125" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT125" t="n">
+        <v>11</v>
+      </c>
+      <c r="CU125" t="n">
+        <v>9.906226997870245</v>
+      </c>
+      <c r="CV125" t="n">
+        <v>9.396453231583358</v>
+      </c>
+      <c r="CW125" t="n">
+        <v>0.4634146341463415</v>
+      </c>
+      <c r="CX125" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY125" t="n">
+        <v>11</v>
+      </c>
+      <c r="CZ125" t="n">
+        <v>10.23898113553676</v>
+      </c>
+      <c r="DA125" t="n">
+        <v>9.669275979057774</v>
+      </c>
+      <c r="DB125" t="n">
+        <v>0.4130434782608696</v>
+      </c>
+      <c r="DC125" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD125" t="n">
         <v>10</v>
       </c>
-      <c r="BV125" t="n">
-        <v>6.356864181514516</v>
-      </c>
-      <c r="BW125" t="n">
-        <v>4.804511768466525</v>
-      </c>
-      <c r="BX125" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="BY125" t="n">
-        <v>3</v>
-      </c>
-      <c r="BZ125" t="n">
-        <v>10</v>
-      </c>
-      <c r="CA125" t="n">
-        <v>6.107517920393603</v>
-      </c>
-      <c r="CB125" t="n">
-        <v>4.633298568115568</v>
-      </c>
-      <c r="CC125" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="CD125" t="n">
-        <v>4</v>
-      </c>
-      <c r="CE125" t="n">
-        <v>8</v>
-      </c>
-      <c r="CF125" t="n">
-        <v>4.844813951249544</v>
-      </c>
-      <c r="CG125" t="n">
-        <v>2.919046648022833</v>
-      </c>
-      <c r="CH125" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="CI125" t="n">
-        <v>2</v>
-      </c>
-      <c r="CJ125" t="n">
-        <v>8</v>
-      </c>
-      <c r="CK125" t="n">
-        <v>6.867313885355758</v>
-      </c>
-      <c r="CL125" t="n">
-        <v>4.652956049652737</v>
-      </c>
-      <c r="CM125" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="CN125" t="n">
-        <v>5</v>
-      </c>
-      <c r="CO125" t="n">
-        <v>8</v>
-      </c>
-      <c r="CP125" t="n">
-        <v>4.765507231302627</v>
-      </c>
-      <c r="CQ125" t="n">
-        <v>2.811641058845702</v>
-      </c>
-      <c r="CR125" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="CS125" t="n">
-        <v>7</v>
-      </c>
-      <c r="CT125" t="n">
-        <v>8</v>
-      </c>
-      <c r="CU125" t="n">
-        <v>4.809250345832383</v>
-      </c>
-      <c r="CV125" t="n">
-        <v>2.638181191654584</v>
-      </c>
-      <c r="CW125" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="CX125" t="n">
-        <v>7</v>
-      </c>
-      <c r="CY125" t="n">
-        <v>10</v>
-      </c>
-      <c r="CZ125" t="n">
-        <v>4.880580826515657</v>
-      </c>
-      <c r="DA125" t="n">
-        <v>2.531462916629413</v>
-      </c>
-      <c r="DB125" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="DC125" t="n">
-        <v>7</v>
-      </c>
-      <c r="DD125" t="n">
-        <v>9</v>
-      </c>
       <c r="DE125" t="n">
-        <v>4.858947931394202</v>
+        <v>10.62541332297354</v>
       </c>
       <c r="DF125" t="n">
-        <v>2.554866679496212</v>
+        <v>9.514859136040755</v>
       </c>
       <c r="DG125" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="DH125" t="n">
         <v>1</v>
